--- a/labeled-sentiment_2col.xlsx
+++ b/labeled-sentiment_2col.xlsx
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>düşündüm ki başqa yolum yoxdur &lt;NUM&gt;_NEG yaşında_NEG tələbə_NEG oldu</t>
+          <t>düşündüm ki başqa yolum yoxdur &lt;NUM&gt;_NEG yaşında_NEG tələbə_NEG ol</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>rəhman bədəlov vəfat etdi</t>
+          <t>rəhman bədəlov vəfat et</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>bakıda güclü külək ağacı qadının üstünə aşırıb xəstəxanalıq etdi</t>
+          <t>bakıda güclü külək ağacı qadının üstünə aşırıb xəstəxanalıq et</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>kamçatkada yenə güclü zəlzələlər oldu</t>
+          <t>kamçatkada yenə güclü zəlzələlər ol</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ismayıllıda zəlzələ oldu</t>
+          <t>ismayıllıda zəlzələ ol</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>uşaq vedrənin içində qaldı köməyə fhn gəldi</t>
+          <t>uşaq vedrənin içində qaldı köməyə fhn gəl</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>göyçayda &lt;NUM&gt; ballıq zəlzələ oldu</t>
+          <t>göyçayda &lt;NUM&gt; ballıq zəlzələ ol</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>media bu sayta xəbərdarlıq etdi</t>
+          <t>media bu sayta xəbərdarlıq et</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1248,7 +1248,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>motosikletçiyə yol vermədi qəzaya səbəb oldu</t>
+          <t>motosikletçiyə yol vermədi qəzaya səbəb ol</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1278,7 +1278,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>leyla əliyeva anasını belə təbrik etdi</t>
+          <t>leyla əliyeva anasını belə təbrik et</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1428,7 +1428,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>&lt;NUM&gt; gündür su olmayan ərazidə növbəti qəza oldu</t>
+          <t>&lt;NUM&gt; gündür su olmayan ərazidə növbəti qəza ol</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -1498,7 +1498,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>&lt;NUM&gt; yaşlı qız bakının mərkəzində xuliqanlıq etdi həbs olundu</t>
+          <t>&lt;NUM&gt; yaşlı qız bakının mərkəzində xuliqanlıq et həbs olundu</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -1628,7 +1628,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>israil iran gündəmi ilə bağlı təyyarələr bakıya eniş etdi</t>
+          <t>israil iran gündəmi ilə bağlı təyyarələr bakıya eniş et</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -1638,7 +1638,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>netanyahu xameneinin öldürülməsi ilə bağlı deyilənləri təkzib etdi</t>
+          <t>netanyahu xameneinin öldürülməsi ilə bağlı deyilənləri təkzib et</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -1738,7 +1738,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>hikmət hacıyev irana getdi</t>
+          <t>hikmət hacıyev irana get</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -1768,7 +1768,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>maşınını binanın yanında saxladı başına iş gəldi</t>
+          <t>maşınını binanın yanında saxladı başına iş gəl</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -2198,7 +2198,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>arvadını döyüb xəstəxanalıq etdi orada da dinc durmadı</t>
+          <t>arvadını döyüb xəstəxanalıq et orada da dinc durmadı</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -2238,7 +2238,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>ukrayna alyaska danışıqlarını rədd etdi zelenski açıqladı</t>
+          <t>ukrayna alyaska danışıqlarını rədd et zelenski açıqladı</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -2328,7 +2328,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>pezeşkian xameneinin müşavirini vəzifəyə təyin etdi</t>
+          <t>pezeşkian xameneinin müşavirini vəzifəyə təyin et</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -2508,7 +2508,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>pənah hüseyn partiya sədrliyindən getdi</t>
+          <t>pənah hüseyn partiya sədrliyindən get</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -2538,7 +2538,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>atam bu dünyadan xoşbəxt getdi</t>
+          <t>atam bu dünyadan xoşbəxt get</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -2718,7 +2718,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>atu nun tələbəsi vəfat etdi</t>
+          <t>atu nun tələbəsi vəfat et</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -2888,7 +2888,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>texnologiya startapı milyon dollarlıq sərmayə cəlb etdi</t>
+          <t>texnologiya startapı milyon dollarlıq sərmayə cəlb et</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -2898,7 +2898,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>rəssamın sərgisi tamaşaçıların böyük marağına səbəb oldu</t>
+          <t>rəssamın sərgisi tamaşaçıların böyük marağına səbəb ol</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -2918,7 +2918,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>incəsənət məktəbinin tələbəsi beynəlxalq müsabiqədə qalib gəldi</t>
+          <t>incəsənət məktəbinin tələbəsi beynəlxalq müsabiqədə qalib gəl</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -2928,7 +2928,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>təbiəti mühafizə layihəsi unikal heyvan növünü xilas etdi</t>
+          <t>təbiəti mühafizə layihəsi unikal heyvan növünü xilas et</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -2938,7 +2938,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>yeni yeraltı qaraj şəhərin nəqliyyat problemini həll etdi</t>
+          <t>yeni yeraltı qaraj şəhərin nəqliyyat problemini həll et</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -2968,7 +2968,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>yazıçının yeni kitabı bestseller oldu</t>
+          <t>yazıçının yeni kitabı bestseller ol</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -3038,7 +3038,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>uşaq bağçasının təmiri balacaların sevincinə səbəb oldu</t>
+          <t>uşaq bağçasının təmiri balacaların sevincinə səbəb ol</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -3078,7 +3078,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>yeni avtobus marşrutu sərnişinlərin rahatlığını təmin etdi</t>
+          <t>yeni avtobus marşrutu sərnişinlərin rahatlığını təmin et</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -3138,7 +3138,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>turist axınının artması şəhər iqtisadiyyatına müsbət təsir etdi</t>
+          <t>turist axınının artması şəhər iqtisadiyyatına müsbət təsir et</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -3218,7 +3218,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>gənclərin startap layihəsi böyük marağa səbəb oldu</t>
+          <t>gənclərin startap layihəsi böyük marağa səbəb ol</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -3238,7 +3238,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>yağış sularının toplanması sistemi quraqlıq problemini həll etdi</t>
+          <t>yağış sularının toplanması sistemi quraqlıq problemini həll et</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -3298,7 +3298,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>sahibkarlıq kursları yüzlərlə insana öz biznesini qurmağa kömək etdi</t>
+          <t>sahibkarlıq kursları yüzlərlə insana öz biznesini qurmağa kömək et</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -3338,7 +3338,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>kənd turizminin inkişafı regionlara yeni gəlir gətirdi</t>
+          <t>kənd turizminin inkişafı regionlara yeni gəl gətirdi</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -3358,7 +3358,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>beynəlxalq konfransda azərbaycan nümayəndə heyəti uğurla çıxış etdi</t>
+          <t>beynəlxalq konfransda azərbaycan nümayəndə heyəti uğurla çıxış et</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -3368,7 +3368,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>uğurlu əməliyyat xəstənin həyatını xilas etdi</t>
+          <t>uğurlu əməliyyat xəstənin həyatını xilas et</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -3438,7 +3438,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>turizm şirkətinin yeni turları böyük marağa səbəb oldu</t>
+          <t>turizm şirkətinin yeni turları böyük marağa səbəb ol</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -3508,7 +3508,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>məktəbdə keçirilən yeniliklər təhsilə müsbət təsir etdi</t>
+          <t>məktəbdə keçirilən yeniliklər təhsilə müsbət təsir et</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -3728,7 +3728,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>investisiya proqramı yerli iqtisadiyyata müsbət təsir etdi</t>
+          <t>investisiya proqramı yerli iqtisadiyyata müsbət təsir et</t>
         </is>
       </c>
       <c r="B330" t="n">
@@ -3758,7 +3758,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>kəşfiyyat qrupu yeni arxeoloji abidə aşkar etdi</t>
+          <t>kəşfiyyat qrupu yeni arxeoloji abidə aşkar et</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -3798,7 +3798,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>elektron xidmətlərin tətbiqi vətəndaşlara vaxta qənaət etməyə kömək etdi</t>
+          <t>elektron xidmətlərin tətbiqi vətəndaşlara vaxta qənaət etməyə kömək et</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -4058,7 +4058,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>turizm agentliyi yeni səyahət paketlərini təqdim etdi</t>
+          <t>turizm agentliyi yeni səyahət paketlərini təqdim et</t>
         </is>
       </c>
       <c r="B363" t="n">
@@ -4228,7 +4228,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>təbiət qoruğu ərazisindəki tədqiqatlar davam edir</t>
+          <t>təbiət qoruğu ərazisindəki tədqiqatlar davam et</t>
         </is>
       </c>
       <c r="B380" t="n">
@@ -4348,7 +4348,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>turizm nazirliyi yeni marşrutları təqdim etdi</t>
+          <t>turizm nazirliyi yeni marşrutları təqdim et</t>
         </is>
       </c>
       <c r="B392" t="n">
@@ -4518,7 +4518,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>şəhərdə yeni yol çəkilişi davam edir</t>
+          <t>şəhərdə yeni yol çəkilişi davam et</t>
         </is>
       </c>
       <c r="B409" t="n">
@@ -4648,7 +4648,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>dövlət idarəsində yeni kadr təyinatı oldu</t>
+          <t>dövlət idarəsində yeni kadr təyinatı ol</t>
         </is>
       </c>
       <c r="B422" t="n">
@@ -4848,7 +4848,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>elektrik enerjisində fasilələr davam edir</t>
+          <t>elektrik enerjisində fasilələr davam et</t>
         </is>
       </c>
       <c r="B442" t="n">
@@ -4868,7 +4868,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>iqlim dəyişiklikləri kənd təsərrüfatını məhv edir</t>
+          <t>iqlim dəyişiklikləri kənd təsərrüfatını məhv et</t>
         </is>
       </c>
       <c r="B444" t="n">
@@ -4888,7 +4888,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>ictimai nəqliyyatda problemlər davam edir</t>
+          <t>ictimai nəqliyyatda problemlər davam et</t>
         </is>
       </c>
       <c r="B446" t="n">
@@ -5008,7 +5008,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>internet xidmətində tez tez fasilələr olur</t>
+          <t>internet xidmətində tez tez fasilələr ol</t>
         </is>
       </c>
       <c r="B458" t="n">
@@ -5108,7 +5108,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>pensiya yaşının artırılması etirazlara səbəb oldu</t>
+          <t>pensiya yaşının artırılması etirazlara səbəb ol</t>
         </is>
       </c>
       <c r="B468" t="n">
@@ -5228,7 +5228,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>sərhəddə gərginlik davam edir</t>
+          <t>sərhəddə gərginlik davam et</t>
         </is>
       </c>
       <c r="B480" t="n">
@@ -5328,7 +5328,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>ictimai nəqliyyatda sıxlıq davam edir</t>
+          <t>ictimai nəqliyyatda sıxlıq davam et</t>
         </is>
       </c>
       <c r="B490" t="n">
@@ -5548,7 +5548,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>banklar kredit verməkdən imtina edir</t>
+          <t>banklar kredit verməkdən imtina et</t>
         </is>
       </c>
       <c r="B512" t="n">
@@ -5568,7 +5568,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>siyasi qərarlar etirazlara səbəb olur</t>
+          <t>siyasi qərarlar etirazlara səbəb ol</t>
         </is>
       </c>
       <c r="B514" t="n">
@@ -5588,7 +5588,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>təhsil islahatları uğursuz oldu</t>
+          <t>təhsil islahatları uğursuz ol</t>
         </is>
       </c>
       <c r="B516" t="n">
@@ -5798,7 +5798,7 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>işsizlik səviyyəsi artmaqda davam edir</t>
+          <t>işsizlik səviyyəsi artmaqda davam et</t>
         </is>
       </c>
       <c r="B537" t="n">
@@ -6058,7 +6058,7 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>səhiyyə layihələri uğurlu oldu</t>
+          <t>səhiyyə layihələri uğurlu ol</t>
         </is>
       </c>
       <c r="B563" t="n">
@@ -6398,7 +6398,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>bank kreditləri əlçatan oldu</t>
+          <t>bank kreditləri əlçatan ol</t>
         </is>
       </c>
       <c r="B597" t="n">
@@ -6578,7 +6578,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>səhiyyə xidmətləri daha əlçatan oldu</t>
+          <t>səhiyyə xidmətləri daha əlçatan ol</t>
         </is>
       </c>
       <c r="B615" t="n">
@@ -6628,7 +6628,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>siyasi sabitlik davam edir</t>
+          <t>siyasi sabitlik davam et</t>
         </is>
       </c>
       <c r="B620" t="n">
@@ -6758,7 +6758,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>bank kreditləri əlverişli oldu</t>
+          <t>bank kreditləri əlverişli ol</t>
         </is>
       </c>
       <c r="B633" t="n">
@@ -6808,7 +6808,7 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>sağlamlıq xidmətləri daha keyfiyyətli oldu</t>
+          <t>sağlamlıq xidmətləri daha keyfiyyətli ol</t>
         </is>
       </c>
       <c r="B638" t="n">
@@ -6848,7 +6848,7 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>biznes mühiti investisiya üçün əlverişli oldu</t>
+          <t>biznes mühiti investisiya üçün əlverişli ol</t>
         </is>
       </c>
       <c r="B642" t="n">
@@ -6958,7 +6958,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>yol təmir işləri davam edir</t>
+          <t>yol təmir işləri davam et</t>
         </is>
       </c>
       <c r="B653" t="n">
@@ -7168,7 +7168,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>siyasi partiya yeni qərar qəbul etdi</t>
+          <t>siyasi partiya yeni qərar qəbul et</t>
         </is>
       </c>
       <c r="B674" t="n">
@@ -7498,7 +7498,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>gənc rəssamın sərgisi sənətsevərlərin böyük marağına səbəb oldu</t>
+          <t>gənc rəssamın sərgisi sənətsevərlərin böyük marağına səbəb ol</t>
         </is>
       </c>
       <c r="B707" t="n">
@@ -7618,7 +7618,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>xalça sənətinin yeni inkişaf mərhələsi beynəlxalq diqqəti cəlb edir</t>
+          <t>xalça sənətinin yeni inkişaf mərhələsi beynəlxalq diqqəti cəlb et</t>
         </is>
       </c>
       <c r="B719" t="n">
@@ -7628,7 +7628,7 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>qədim musiqi alətlərinin bərpası layihəsi böyük marağa səbəb oldu</t>
+          <t>qədim musiqi alətlərinin bərpası layihəsi böyük marağa səbəb ol</t>
         </is>
       </c>
       <c r="B720" t="n">
@@ -7748,7 +7748,7 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>mədəniyyət turizmi azərbaycanda inkişaf edir</t>
+          <t>mədəniyyət turizmi azərbaycanda inkişaf et</t>
         </is>
       </c>
       <c r="B732" t="n">
@@ -7808,7 +7808,7 @@
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>milli xalça muzeyi yeni kolleksiya ilə tamaşaçıları heyran etdi</t>
+          <t>milli xalça muzeyi yeni kolleksiya ilə tamaşaçıları heyran et</t>
         </is>
       </c>
       <c r="B738" t="n">
@@ -7838,7 +7838,7 @@
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>mədəniyyət sahəsində əməkdaşlıqlar inkişaf edir</t>
+          <t>mədəniyyət sahəsində əməkdaşlıqlar inkişaf et</t>
         </is>
       </c>
       <c r="B741" t="n">
@@ -7908,7 +7908,7 @@
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>səyyar kitabxana layihəsi bölgələrdə böyük marağa səbəb oldu</t>
+          <t>səyyar kitabxana layihəsi bölgələrdə böyük marağa səbəb ol</t>
         </is>
       </c>
       <c r="B748" t="n">
@@ -8038,7 +8038,7 @@
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>mədəniyyət və turizm nazirliyi yeni layihəni təqdim etdi</t>
+          <t>mədəniyyət və turizm nazirliyi yeni layihəni təqdim et</t>
         </is>
       </c>
       <c r="B761" t="n">
@@ -8098,7 +8098,7 @@
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>milli muzeylər şurası yeni qaydalar qəbul etdi</t>
+          <t>milli muzeylər şurası yeni qaydalar qəbul et</t>
         </is>
       </c>
       <c r="B767" t="n">
@@ -8168,7 +8168,7 @@
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>milli teatrda yeni tamaşa üçün hazırlıq gedir</t>
+          <t>milli teatrda yeni tamaşa üçün hazırlıq get</t>
         </is>
       </c>
       <c r="B774" t="n">
@@ -8198,7 +8198,7 @@
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>milli mədəni irs fondu yeni hesabat dərc etdi</t>
+          <t>milli mədəni irs fondu yeni hesabat dərc et</t>
         </is>
       </c>
       <c r="B777" t="n">
@@ -8318,7 +8318,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>azərbaycan musiqi irsinin tədqiqi davam edir</t>
+          <t>azərbaycan musiqi irsinin tədqiqi davam et</t>
         </is>
       </c>
       <c r="B789" t="n">
@@ -8418,7 +8418,7 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>şəhər mədəniyyət idarəsi yeni proqram təqdim etdi</t>
+          <t>şəhər mədəniyyət idarəsi yeni proqram təqdim et</t>
         </is>
       </c>
       <c r="B799" t="n">
@@ -8528,7 +8528,7 @@
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>milli fonddan tarixi əsərlərin satışa çıxarılması etirazlara səbəb oldu</t>
+          <t>milli fonddan tarixi əsərlərin satışa çıxarılması etirazlara səbəb ol</t>
         </is>
       </c>
       <c r="B810" t="n">
@@ -8668,7 +8668,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>teatrda baş verən texniki problem tamaşanın yarımçıq qalmasına səbəb oldu</t>
+          <t>teatrda baş verən texniki problem tamaşanın yarımçıq qalmasına səbəb ol</t>
         </is>
       </c>
       <c r="B824" t="n">
@@ -8698,7 +8698,7 @@
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>köhnə kinoteatrın dağıdılması narazılıqlara səbəb oldu</t>
+          <t>köhnə kinoteatrın dağıdılması narazılıqlara səbəb ol</t>
         </is>
       </c>
       <c r="B827" t="n">
@@ -8768,7 +8768,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>mədəniyyət tədbirlərinin ləğvi etirazlara səbəb oldu</t>
+          <t>mədəniyyət tədbirlərinin ləğvi etirazlara səbəb ol</t>
         </is>
       </c>
       <c r="B834" t="n">
@@ -8808,7 +8808,7 @@
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>sənət sərgi mərkəzində işıqlandırma sistemi xarab oldu</t>
+          <t>sənət sərgi mərkəzində işıqlandırma sistemi xarab ol</t>
         </is>
       </c>
       <c r="B838" t="n">
@@ -8848,7 +8848,7 @@
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>tarixi parkda ağacların kəsilməsi ekoloji fəalların etirazına səbəb oldu</t>
+          <t>tarixi parkda ağacların kəsilməsi ekoloji fəalların etirazına səbəb ol</t>
         </is>
       </c>
       <c r="B842" t="n">
@@ -8938,7 +8938,7 @@
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>köhnə körpünün sökülməsi əhalinin narazılığına səbəb oldu</t>
+          <t>köhnə körpünün sökülməsi əhalinin narazılığına səbəb ol</t>
         </is>
       </c>
       <c r="B851" t="n">
@@ -9018,7 +9018,7 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>mədəniyyət nazirliyi gənc incəsənət adamları üçün qrant proqramı elan etdi</t>
+          <t>mədəniyyət nazirliyi gənc incəsənət adamları üçün qrant proqramı elan et</t>
         </is>
       </c>
       <c r="B859" t="n">
@@ -9128,7 +9128,7 @@
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>bakı incəsənət mərkəzi yeni təlim proqramlarını təqdim etdi</t>
+          <t>bakı incəsənət mərkəzi yeni təlim proqramlarını təqdim et</t>
         </is>
       </c>
       <c r="B870" t="n">
@@ -9208,7 +9208,7 @@
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>azərbaycan mədəniyyət nazirliyi yeni fəaliyyət planını təqdim etdi</t>
+          <t>azərbaycan mədəniyyət nazirliyi yeni fəaliyyət planını təqdim et</t>
         </is>
       </c>
       <c r="B878" t="n">
@@ -9328,7 +9328,7 @@
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>mədəniyyət nazirliyi mədəni turizmin inkişafı üçün yeni layihəni təqdim etdi</t>
+          <t>mədəniyyət nazirliyi mədəni turizmin inkişafı üçün yeni layihəni təqdim et</t>
         </is>
       </c>
       <c r="B890" t="n">
@@ -9348,7 +9348,7 @@
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>qədim şəhər divarlarının bərpası işləri davam edir</t>
+          <t>qədim şəhər divarlarının bərpası işləri davam et</t>
         </is>
       </c>
       <c r="B892" t="n">
@@ -9448,7 +9448,7 @@
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>azərbaycan rəssamlar ittifaqı yeni sərgi müsabiqəsi elan etdi</t>
+          <t>azərbaycan rəssamlar ittifaqı yeni sərgi müsabiqəsi elan et</t>
         </is>
       </c>
       <c r="B902" t="n">
@@ -9458,7 +9458,7 @@
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>milli kitabxana yeni texnologiyalar tətbiq edir</t>
+          <t>milli kitabxana yeni texnologiyalar tətbiq et</t>
         </is>
       </c>
       <c r="B903" t="n">
@@ -9498,7 +9498,7 @@
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>azərbaycan güləşçisi olimpiya lisenziyasına sahib oldu</t>
+          <t>azərbaycan güləşçisi olimpiya lisenziyasına sahib ol</t>
         </is>
       </c>
       <c r="B907" t="n">
@@ -9588,7 +9588,7 @@
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>gənc tennisçimiz beynəlxalq turnirdə çempion oldu</t>
+          <t>gənc tennisçimiz beynəlxalq turnirdə çempion ol</t>
         </is>
       </c>
       <c r="B916" t="n">
@@ -9668,7 +9668,7 @@
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>milli atletika komandası yeni məşqçi ilə uğurlu çıxış etdi</t>
+          <t>milli atletika komandası yeni məşqçi ilə uğurlu çıxış et</t>
         </is>
       </c>
       <c r="B924" t="n">
@@ -9678,7 +9678,7 @@
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>azərbaycan gimnastları növbəti beynəlxalq turnirdə hamını heyran etdi</t>
+          <t>azərbaycan gimnastları növbəti beynəlxalq turnirdə hamını heyran et</t>
         </is>
       </c>
       <c r="B925" t="n">
@@ -9708,7 +9708,7 @@
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>azərbaycanın qadınlardan ibarət cüdo komandası avropa çempionu oldu</t>
+          <t>azərbaycanın qadınlardan ibarət cüdo komandası avropa çempionu ol</t>
         </is>
       </c>
       <c r="B928" t="n">
@@ -9758,7 +9758,7 @@
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>azərbaycan yığması yoldaşlıq oyununda rəqibinə qalib gəldi</t>
+          <t>azərbaycan yığması yoldaşlıq oyununda rəqibinə qalib gəl</t>
         </is>
       </c>
       <c r="B933" t="n">
@@ -9768,7 +9768,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>gənc atıcımız olimpiya lisenziyasına sahib oldu</t>
+          <t>gənc atıcımız olimpiya lisenziyasına sahib ol</t>
         </is>
       </c>
       <c r="B934" t="n">
@@ -9838,7 +9838,7 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>azərbaycan idmançıları beynəlxalq arenalarda fəxrlə təmsil edir</t>
+          <t>azərbaycan idmançıları beynəlxalq arenalarda fəxrlə təmsil et</t>
         </is>
       </c>
       <c r="B941" t="n">
@@ -9888,7 +9888,7 @@
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>bakıda idman turizmi inkişaf edir</t>
+          <t>bakıda idman turizmi inkişaf et</t>
         </is>
       </c>
       <c r="B946" t="n">
@@ -9948,7 +9948,7 @@
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>azərbaycan yığması avropa liqasında uğurla çıxış edir</t>
+          <t>azərbaycan yığması avropa liqasında uğurla çıxış et</t>
         </is>
       </c>
       <c r="B952" t="n">
@@ -9998,7 +9998,7 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>azərbaycan idman nazirliyi yeni layihələr təqdim etdi</t>
+          <t>azərbaycan idman nazirliyi yeni layihələr təqdim et</t>
         </is>
       </c>
       <c r="B957" t="n">
@@ -10058,7 +10058,7 @@
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>azərbaycan idman federasiyaları yeni qaydalar qəbul etdi</t>
+          <t>azərbaycan idman federasiyaları yeni qaydalar qəbul et</t>
         </is>
       </c>
       <c r="B963" t="n">
@@ -10198,7 +10198,7 @@
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>azərbaycan idman naziri idmançıların vəziyyəti ilə tanış oldu</t>
+          <t>azərbaycan idman naziri idmançıların vəziyyəti ilə tanış ol</t>
         </is>
       </c>
       <c r="B977" t="n">
@@ -10238,7 +10238,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>gənc idmançıların təlimləri davam edir</t>
+          <t>gənc idmançıların təlimləri davam et</t>
         </is>
       </c>
       <c r="B981" t="n">
@@ -10268,7 +10268,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>azərbaycan idmançısı xaricdə məşqə getdi</t>
+          <t>azərbaycan idmançısı xaricdə məşqə get</t>
         </is>
       </c>
       <c r="B984" t="n">
@@ -10278,7 +10278,7 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>milli şahmatçı beynəlxalq turnirdə iştirak edir</t>
+          <t>milli şahmatçı beynəlxalq turnirdə iştirak et</t>
         </is>
       </c>
       <c r="B985" t="n">
@@ -10328,7 +10328,7 @@
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>bakı idman sarayında təmir işləri gedir</t>
+          <t>bakı idman sarayında təmir işləri get</t>
         </is>
       </c>
       <c r="B990" t="n">
@@ -10348,7 +10348,7 @@
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>azərbaycan futbol federasiyası yeni qaydalar qəbul etdi</t>
+          <t>azərbaycan futbol federasiyası yeni qaydalar qəbul et</t>
         </is>
       </c>
       <c r="B992" t="n">
@@ -10388,7 +10388,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>bakı şəhərində idman turizmi inkişaf edir</t>
+          <t>bakı şəhərində idman turizmi inkişaf et</t>
         </is>
       </c>
       <c r="B996" t="n">
@@ -10428,7 +10428,7 @@
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>azərbaycan gimnastika federasiyası yeni məşqçilər cəlb edir</t>
+          <t>azərbaycan gimnastika federasiyası yeni məşqçilər cəlb et</t>
         </is>
       </c>
       <c r="B1000" t="n">
@@ -10448,7 +10448,7 @@
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>milli futbol komandası avropa çempionatının seçmə mərhələsində məğlub oldu</t>
+          <t>milli futbol komandası avropa çempionatının seçmə mərhələsində məğlub ol</t>
         </is>
       </c>
       <c r="B1002" t="n">
@@ -10508,7 +10508,7 @@
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>milli komandanın məğlubiyyəti ictimaiyyətdə narazılığa səbəb oldu</t>
+          <t>milli komandanın məğlubiyyəti ictimaiyyətdə narazılığa səbəb ol</t>
         </is>
       </c>
       <c r="B1008" t="n">
@@ -10588,7 +10588,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>milli komanda rəqiblərinə qarşı zəif çıxış etdi</t>
+          <t>milli komanda rəqiblərinə qarşı zəif çıxış et</t>
         </is>
       </c>
       <c r="B1016" t="n">
@@ -10628,7 +10628,7 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>azərbaycanın qadınlardan ibarət voleybol komandası məğlub oldu</t>
+          <t>azərbaycanın qadınlardan ibarət voleybol komandası məğlub ol</t>
         </is>
       </c>
       <c r="B1020" t="n">
@@ -10888,7 +10888,7 @@
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>azərbaycan yığmasının çıxışı pərəstişkarları məyus etdi</t>
+          <t>azərbaycan yığmasının çıxışı pərəstişkarları məyus et</t>
         </is>
       </c>
       <c r="B1046" t="n">
@@ -10928,7 +10928,7 @@
     <row r="1050">
       <c r="A1050" t="inlineStr">
         <is>
-          <t>azərbaycan idman federasiyası yeni qaydalar qəbul etdi</t>
+          <t>azərbaycan idman federasiyası yeni qaydalar qəbul et</t>
         </is>
       </c>
       <c r="B1050" t="n">
@@ -10948,7 +10948,7 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>bakı qran prisi üçün hazırlıq işləri davam edir</t>
+          <t>bakı qran prisi üçün hazırlıq işləri davam et</t>
         </is>
       </c>
       <c r="B1052" t="n">
@@ -10988,7 +10988,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>azərbaycanlı üzgüçü beynəlxalq turnirdə iştirak etdi</t>
+          <t>azərbaycanlı üzgüçü beynəlxalq turnirdə iştirak et</t>
         </is>
       </c>
       <c r="B1056" t="n">
@@ -11008,7 +11008,7 @@
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>azərbaycan futbol federasiyası yeni layihəni təqdim etdi</t>
+          <t>azərbaycan futbol federasiyası yeni layihəni təqdim et</t>
         </is>
       </c>
       <c r="B1058" t="n">
@@ -11078,7 +11078,7 @@
     <row r="1065">
       <c r="A1065" t="inlineStr">
         <is>
-          <t>azərbaycanlı tennisçi beynəlxalq turnirdə iştirak edir</t>
+          <t>azərbaycanlı tennisçi beynəlxalq turnirdə iştirak et</t>
         </is>
       </c>
       <c r="B1065" t="n">
@@ -11108,7 +11108,7 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>milli futbol komandasının yeni taktikası üzərində iş gedir</t>
+          <t>milli futbol komandasının yeni taktikası üzərində iş get</t>
         </is>
       </c>
       <c r="B1068" t="n">
@@ -11218,7 +11218,7 @@
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t>azərbaycanlı şahmatçı beynəlxalq turnirdə iştirak edir</t>
+          <t>azərbaycanlı şahmatçı beynəlxalq turnirdə iştirak et</t>
         </is>
       </c>
       <c r="B1079" t="n">
@@ -11248,7 +11248,7 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>bakıda idman müəssisələrinin tikintisi davam edir</t>
+          <t>bakıda idman müəssisələrinin tikintisi davam et</t>
         </is>
       </c>
       <c r="B1082" t="n">
@@ -11338,7 +11338,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>bakıda keçirilən biznes forum xarici investorların böyük marağına səbəb oldu</t>
+          <t>bakıda keçirilən biznes forum xarici investorların böyük marağına səbəb ol</t>
         </is>
       </c>
       <c r="B1091" t="n">
@@ -11458,7 +11458,7 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>vergi islahatları biznes mühitini daha da cəlbedici etdi</t>
+          <t>vergi islahatları biznes mühitini daha da cəlbedici et</t>
         </is>
       </c>
       <c r="B1103" t="n">
@@ -11478,7 +11478,7 @@
     <row r="1105">
       <c r="A1105" t="inlineStr">
         <is>
-          <t>elektron ticarət azərbaycanda sürətlə inkişaf edir</t>
+          <t>elektron ticarət azərbaycanda sürətlə inkişaf et</t>
         </is>
       </c>
       <c r="B1105" t="n">
@@ -11508,7 +11508,7 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>azərbaycanın bank sektoru böyük gəlirlər əldə etdi</t>
+          <t>azərbaycanın bank sektoru böyük gəlirlər əldə et</t>
         </is>
       </c>
       <c r="B1108" t="n">
@@ -11628,7 +11628,7 @@
     <row r="1120">
       <c r="A1120" t="inlineStr">
         <is>
-          <t>iqtisadiyyatın rəqəmsallaşması sürətlə davam edir</t>
+          <t>iqtisadiyyatın rəqəmsallaşması sürətlə davam et</t>
         </is>
       </c>
       <c r="B1120" t="n">
@@ -11728,7 +11728,7 @@
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>azərbaycanda rəqəmsal iqtisadiyyat sürətlə inkişaf edir</t>
+          <t>azərbaycanda rəqəmsal iqtisadiyyat sürətlə inkişaf et</t>
         </is>
       </c>
       <c r="B1130" t="n">
@@ -11818,7 +11818,7 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>azərbaycanda inflyasiyanın artımı əhalinin narahatlığına səbəb oldu</t>
+          <t>azərbaycanda inflyasiyanın artımı əhalinin narahatlığına səbəb ol</t>
         </is>
       </c>
       <c r="B1139" t="n">
@@ -11878,7 +11878,7 @@
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>regionda iqtisadi artım gözləniləndən aşağı oldu</t>
+          <t>regionda iqtisadi artım gözləniləndən aşağı ol</t>
         </is>
       </c>
       <c r="B1145" t="n">
@@ -12008,7 +12008,7 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>vergi orqanlarının fəaliyyəti sahibkarların tənqidinə səbəb oldu</t>
+          <t>vergi orqanlarının fəaliyyəti sahibkarların tənqidinə səbəb ol</t>
         </is>
       </c>
       <c r="B1158" t="n">
@@ -12088,7 +12088,7 @@
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>sahibkarlıq mühitində problemlər davam edir</t>
+          <t>sahibkarlıq mühitində problemlər davam et</t>
         </is>
       </c>
       <c r="B1166" t="n">
@@ -12128,7 +12128,7 @@
     <row r="1170">
       <c r="A1170" t="inlineStr">
         <is>
-          <t>büdcə gəlirləri gözləniləndən az oldu</t>
+          <t>büdcə gəlirləri gözləniləndən az ol</t>
         </is>
       </c>
       <c r="B1170" t="n">
@@ -12168,7 +12168,7 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>qlobal iqtisadiyyatdakı problemlər azərbaycana təsir edir</t>
+          <t>qlobal iqtisadiyyatdakı problemlər azərbaycana təsir et</t>
         </is>
       </c>
       <c r="B1174" t="n">
@@ -12178,7 +12178,7 @@
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>iqtisadiyyatda rəqəmsallaşma ləng gedir</t>
+          <t>iqtisadiyyatda rəqəmsallaşma ləng get</t>
         </is>
       </c>
       <c r="B1175" t="n">
@@ -12268,7 +12268,7 @@
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>vergi sistemindəki dəyişikliklər etirazlara səbəb oldu</t>
+          <t>vergi sistemindəki dəyişikliklər etirazlara səbəb ol</t>
         </is>
       </c>
       <c r="B1184" t="n">
@@ -12298,7 +12298,7 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>iqtisadiyyatda durğunluq davam edir</t>
+          <t>iqtisadiyyatda durğunluq davam et</t>
         </is>
       </c>
       <c r="B1187" t="n">
@@ -12368,7 +12368,7 @@
     <row r="1194">
       <c r="A1194" t="inlineStr">
         <is>
-          <t>iqtisadiyyat nazirliyi yeni layihəni təqdim etdi</t>
+          <t>iqtisadiyyat nazirliyi yeni layihəni təqdim et</t>
         </is>
       </c>
       <c r="B1194" t="n">
@@ -12528,7 +12528,7 @@
     <row r="1210">
       <c r="A1210" t="inlineStr">
         <is>
-          <t>azərbaycanda maliyyə sektorunda islahatlar davam edir</t>
+          <t>azərbaycanda maliyyə sektorunda islahatlar davam et</t>
         </is>
       </c>
       <c r="B1210" t="n">
@@ -12598,7 +12598,7 @@
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>iqtisadiyyat nazirliyi yeni sahibkarlıq proqramlarını təqdim etdi</t>
+          <t>iqtisadiyyat nazirliyi yeni sahibkarlıq proqramlarını təqdim et</t>
         </is>
       </c>
       <c r="B1217" t="n">
@@ -12658,7 +12658,7 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>dövlət gömrük komitəsi yeni xidmət təqdim etdi</t>
+          <t>dövlət gömrük komitəsi yeni xidmət təqdim et</t>
         </is>
       </c>
       <c r="B1223" t="n">
@@ -12668,7 +12668,7 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>iqtisadiyyat nazirliyi yeni sənaye parkı planını təqdim etdi</t>
+          <t>iqtisadiyyat nazirliyi yeni sənaye parkı planını təqdim et</t>
         </is>
       </c>
       <c r="B1224" t="n">
@@ -12698,7 +12698,7 @@
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>maliyyə nazirliyi yeni büdcə proqramını təqdim etdi</t>
+          <t>maliyyə nazirliyi yeni büdcə proqramını təqdim et</t>
         </is>
       </c>
       <c r="B1227" t="n">
@@ -12798,7 +12798,7 @@
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>səhiyyə nazirliyi yeni tibbi avadanlıqlar idxal etdi</t>
+          <t>səhiyyə nazirliyi yeni tibbi avadanlıqlar idxal et</t>
         </is>
       </c>
       <c r="B1237" t="n">
@@ -12828,7 +12828,7 @@
     <row r="1240">
       <c r="A1240" t="inlineStr">
         <is>
-          <t>ölkədə peyvəndləmə kampaniyası uğurla davam edir</t>
+          <t>ölkədə peyvəndləmə kampaniyası uğurla davam et</t>
         </is>
       </c>
       <c r="B1240" t="n">
@@ -12888,7 +12888,7 @@
     <row r="1246">
       <c r="A1246" t="inlineStr">
         <is>
-          <t>onkologiya mərkəzi beynəlxalq əməkdaşlıq çərçivəsində yeni texnologiyalar əldə etdi</t>
+          <t>onkologiya mərkəzi beynəlxalq əməkdaşlıq çərçivəsində yeni texnologiyalar əldə et</t>
         </is>
       </c>
       <c r="B1246" t="n">
@@ -12918,7 +12918,7 @@
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t>tibbi turizm ölkədə inkişaf edir</t>
+          <t>tibbi turizm ölkədə inkişaf et</t>
         </is>
       </c>
       <c r="B1249" t="n">
@@ -13018,7 +13018,7 @@
     <row r="1259">
       <c r="A1259" t="inlineStr">
         <is>
-          <t>səhiyyə nazirliyi yeni təlim proqramını təqdim etdi</t>
+          <t>səhiyyə nazirliyi yeni təlim proqramını təqdim et</t>
         </is>
       </c>
       <c r="B1259" t="n">
@@ -13298,7 +13298,7 @@
     <row r="1287">
       <c r="A1287" t="inlineStr">
         <is>
-          <t>ölkənin səhiyyə nazirliyi yeni proqramı təqdim etdi</t>
+          <t>ölkənin səhiyyə nazirliyi yeni proqramı təqdim et</t>
         </is>
       </c>
       <c r="B1287" t="n">
@@ -13318,7 +13318,7 @@
     <row r="1289">
       <c r="A1289" t="inlineStr">
         <is>
-          <t>bakıda yeni xəstəxananın tikintisi davam edir</t>
+          <t>bakıda yeni xəstəxananın tikintisi davam et</t>
         </is>
       </c>
       <c r="B1289" t="n">
@@ -13418,7 +13418,7 @@
     <row r="1299">
       <c r="A1299" t="inlineStr">
         <is>
-          <t>səhiyyə nazirliyi yeni xəstəxana binası layihəsini təqdim etdi</t>
+          <t>səhiyyə nazirliyi yeni xəstəxana binası layihəsini təqdim et</t>
         </is>
       </c>
       <c r="B1299" t="n">
@@ -13528,7 +13528,7 @@
     <row r="1310">
       <c r="A1310" t="inlineStr">
         <is>
-          <t>azərbaycan səhiyyə nazirliyi yeni layihələr təqdim etdi</t>
+          <t>azərbaycan səhiyyə nazirliyi yeni layihələr təqdim et</t>
         </is>
       </c>
       <c r="B1310" t="n">
@@ -13548,7 +13548,7 @@
     <row r="1312">
       <c r="A1312" t="inlineStr">
         <is>
-          <t>səhiyyə sistemində islahatlar davam edir</t>
+          <t>səhiyyə sistemində islahatlar davam et</t>
         </is>
       </c>
       <c r="B1312" t="n">
@@ -13888,7 +13888,7 @@
     <row r="1346">
       <c r="A1346" t="inlineStr">
         <is>
-          <t>səhiyyə sistemində islahatlar ləng gedir</t>
+          <t>səhiyyə sistemində islahatlar ləng get</t>
         </is>
       </c>
       <c r="B1346" t="n">
@@ -13898,7 +13898,7 @@
     <row r="1347">
       <c r="A1347" t="inlineStr">
         <is>
-          <t>azərbaycanda peyvəndlənmə kampaniyası etirazlara səbəb oldu</t>
+          <t>azərbaycanda peyvəndlənmə kampaniyası etirazlara səbəb ol</t>
         </is>
       </c>
       <c r="B1347" t="n">
@@ -13928,7 +13928,7 @@
     <row r="1350">
       <c r="A1350" t="inlineStr">
         <is>
-          <t>səhiyyə sahəsindəki çatışmazlıqlar geniş tənqidə səbəb oldu</t>
+          <t>səhiyyə sahəsindəki çatışmazlıqlar geniş tənqidə səbəb ol</t>
         </is>
       </c>
       <c r="B1350" t="n">
@@ -13978,7 +13978,7 @@
     <row r="1355">
       <c r="A1355" t="inlineStr">
         <is>
-          <t>tibbi sığorta sistemi əhalinin narazılığına səbəb oldu</t>
+          <t>tibbi sığorta sistemi əhalinin narazılığına səbəb ol</t>
         </is>
       </c>
       <c r="B1355" t="n">
@@ -14108,7 +14108,7 @@
     <row r="1368">
       <c r="A1368" t="inlineStr">
         <is>
-          <t>səhiyyə sahəsində işləyənlərin iş şəraiti pisdir</t>
+          <t>səhiyyə sahəsində işləyənlərin iş şəraiti pis</t>
         </is>
       </c>
       <c r="B1368" t="n">
@@ -14158,7 +14158,7 @@
     <row r="1373">
       <c r="A1373" t="inlineStr">
         <is>
-          <t>səhiyyə sistemindəki problemlər cəmiyyəti narahat edir</t>
+          <t>səhiyyə sistemindəki problemlər cəmiyyəti narahat et</t>
         </is>
       </c>
       <c r="B1373" t="n">
@@ -14198,7 +14198,7 @@
     <row r="1377">
       <c r="A1377" t="inlineStr">
         <is>
-          <t>tibbi sığorta sistemi ilə bağlı problemlər davam edir</t>
+          <t>tibbi sığorta sistemi ilə bağlı problemlər davam et</t>
         </is>
       </c>
       <c r="B1377" t="n">
@@ -14238,7 +14238,7 @@
     <row r="1381">
       <c r="A1381" t="inlineStr">
         <is>
-          <t>səhiyyə nazirliyi yeni tibbi proqramı təqdim etdi</t>
+          <t>səhiyyə nazirliyi yeni tibbi proqramı təqdim et</t>
         </is>
       </c>
       <c r="B1381" t="n">
@@ -14268,7 +14268,7 @@
     <row r="1384">
       <c r="A1384" t="inlineStr">
         <is>
-          <t>təhsil nazirliyi yeni təlim proqramını təqdim etdi</t>
+          <t>təhsil nazirliyi yeni təlim proqramını təqdim et</t>
         </is>
       </c>
       <c r="B1384" t="n">
@@ -14288,7 +14288,7 @@
     <row r="1386">
       <c r="A1386" t="inlineStr">
         <is>
-          <t>azərbaycanlı tələbə abş ın nüfuzlu universitetinə qəbul oldu</t>
+          <t>azərbaycanlı tələbə abş ın nüfuzlu universitetinə qəbul ol</t>
         </is>
       </c>
       <c r="B1386" t="n">
@@ -14368,7 +14368,7 @@
     <row r="1394">
       <c r="A1394" t="inlineStr">
         <is>
-          <t>yeni texnologiyaların tətbiqi dərslərin daha maraqlı olmasına səbəb oldu</t>
+          <t>yeni texnologiyaların tətbiqi dərslərin daha maraqlı olmasına səbəb ol</t>
         </is>
       </c>
       <c r="B1394" t="n">
@@ -14388,7 +14388,7 @@
     <row r="1396">
       <c r="A1396" t="inlineStr">
         <is>
-          <t>bakıda beynəlxalq təhsil sərgisi böyük marağa səbəb oldu</t>
+          <t>bakıda beynəlxalq təhsil sərgisi böyük marağa səbəb ol</t>
         </is>
       </c>
       <c r="B1396" t="n">
@@ -14748,7 +14748,7 @@
     <row r="1432">
       <c r="A1432" t="inlineStr">
         <is>
-          <t>təhsil sistemindəki çatışmazlıqlar geniş tənqidə səbəb oldu</t>
+          <t>təhsil sistemindəki çatışmazlıqlar geniş tənqidə səbəb ol</t>
         </is>
       </c>
       <c r="B1432" t="n">
@@ -14858,7 +14858,7 @@
     <row r="1443">
       <c r="A1443" t="inlineStr">
         <is>
-          <t>məktəb direktorlarının qeyri etik davranışı valideynlərin etirazına səbəb oldu</t>
+          <t>məktəb direktorlarının qeyri etik davranışı valideynlərin etirazına səbəb ol</t>
         </is>
       </c>
       <c r="B1443" t="n">
@@ -14928,7 +14928,7 @@
     <row r="1450">
       <c r="A1450" t="inlineStr">
         <is>
-          <t>təhsil sahəsindəki kadr çatışmazlığı problemi davam edir</t>
+          <t>təhsil sahəsindəki kadr çatışmazlığı problemi davam et</t>
         </is>
       </c>
       <c r="B1450" t="n">
@@ -14948,7 +14948,7 @@
     <row r="1452">
       <c r="A1452" t="inlineStr">
         <is>
-          <t>ali məktəblərdə təhsil haqqının artırılması etirazlara səbəb oldu</t>
+          <t>ali məktəblərdə təhsil haqqının artırılması etirazlara səbəb ol</t>
         </is>
       </c>
       <c r="B1452" t="n">
@@ -15138,7 +15138,7 @@
     <row r="1471">
       <c r="A1471" t="inlineStr">
         <is>
-          <t>təhsil sahəsindəki bürokratik problemlər davam edir</t>
+          <t>təhsil sahəsindəki bürokratik problemlər davam et</t>
         </is>
       </c>
       <c r="B1471" t="n">
@@ -15228,7 +15228,7 @@
     <row r="1480">
       <c r="A1480" t="inlineStr">
         <is>
-          <t>təhsil nazirliyi yeni təhsil layihəsini təqdim etdi</t>
+          <t>təhsil nazirliyi yeni təhsil layihəsini təqdim et</t>
         </is>
       </c>
       <c r="B1480" t="n">
@@ -15258,7 +15258,7 @@
     <row r="1483">
       <c r="A1483" t="inlineStr">
         <is>
-          <t>təhsil nazirinin müavini vəzifəsinə yeni təyinat oldu</t>
+          <t>təhsil nazirinin müavini vəzifəsinə yeni təyinat ol</t>
         </is>
       </c>
       <c r="B1483" t="n">
@@ -15388,7 +15388,7 @@
     <row r="1496">
       <c r="A1496" t="inlineStr">
         <is>
-          <t>azərbaycanda məktəblərin bərpası işləri davam edir</t>
+          <t>azərbaycanda məktəblərin bərpası işləri davam et</t>
         </is>
       </c>
       <c r="B1496" t="n">
@@ -15398,7 +15398,7 @@
     <row r="1497">
       <c r="A1497" t="inlineStr">
         <is>
-          <t>təhsil nazirliyi yeni tədris proqramını təqdim etdi</t>
+          <t>təhsil nazirliyi yeni tədris proqramını təqdim et</t>
         </is>
       </c>
       <c r="B1497" t="n">
@@ -15518,7 +15518,7 @@
     <row r="1509">
       <c r="A1509" t="inlineStr">
         <is>
-          <t>təhsil nazirliyi yeni tələbə qəbulu qaydalarını təqdim etdi</t>
+          <t>təhsil nazirliyi yeni tələbə qəbulu qaydalarını təqdim et</t>
         </is>
       </c>
       <c r="B1509" t="n">
@@ -15598,7 +15598,7 @@
     <row r="1517">
       <c r="A1517" t="inlineStr">
         <is>
-          <t>təhsil nazirliyi yeni təhsil strategiyasını təqdim etdi</t>
+          <t>təhsil nazirliyi yeni təhsil strategiyasını təqdim et</t>
         </is>
       </c>
       <c r="B1517" t="n">
@@ -15648,7 +15648,7 @@
     <row r="1522">
       <c r="A1522" t="inlineStr">
         <is>
-          <t>azərbaycanda təhsil sistemində islahatlar davam edir</t>
+          <t>azərbaycanda təhsil sistemində islahatlar davam et</t>
         </is>
       </c>
       <c r="B1522" t="n">
@@ -15708,7 +15708,7 @@
     <row r="1528">
       <c r="A1528" t="inlineStr">
         <is>
-          <t>bakıda keçirilən texnologiya forumu xarici investorların böyük marağına səbəb oldu</t>
+          <t>bakıda keçirilən texnologiya forumu xarici investorların böyük marağına səbəb ol</t>
         </is>
       </c>
       <c r="B1528" t="n">
@@ -15718,7 +15718,7 @@
     <row r="1529">
       <c r="A1529" t="inlineStr">
         <is>
-          <t>yeni startap layihəsi böyük investisiya cəlb etdi</t>
+          <t>yeni startap layihəsi böyük investisiya cəlb et</t>
         </is>
       </c>
       <c r="B1529" t="n">
@@ -15818,7 +15818,7 @@
     <row r="1539">
       <c r="A1539" t="inlineStr">
         <is>
-          <t>azərbaycanda rəqəmsal transformasiya prosesi sürətlə davam edir</t>
+          <t>azərbaycanda rəqəmsal transformasiya prosesi sürətlə davam et</t>
         </is>
       </c>
       <c r="B1539" t="n">
@@ -15878,7 +15878,7 @@
     <row r="1545">
       <c r="A1545" t="inlineStr">
         <is>
-          <t>azərbaycanda startap ekosistemi inkişaf edir</t>
+          <t>azərbaycanda startap ekosistemi inkişaf et</t>
         </is>
       </c>
       <c r="B1545" t="n">
@@ -15928,7 +15928,7 @@
     <row r="1550">
       <c r="A1550" t="inlineStr">
         <is>
-          <t>yeni texnoloji məhsullar yerli bazarda böyük marağa səbəb oldu</t>
+          <t>yeni texnoloji məhsullar yerli bazarda böyük marağa səbəb ol</t>
         </is>
       </c>
       <c r="B1550" t="n">
@@ -15958,7 +15958,7 @@
     <row r="1553">
       <c r="A1553" t="inlineStr">
         <is>
-          <t>azərbaycanlı gənc alim yeni texnologiya ixtira etdi</t>
+          <t>azərbaycanlı gənc alim yeni texnologiya ixtira et</t>
         </is>
       </c>
       <c r="B1553" t="n">
@@ -15968,7 +15968,7 @@
     <row r="1554">
       <c r="A1554" t="inlineStr">
         <is>
-          <t>milli kiber təhlükəsizlik komandası beynəlxalq yarışda qalib gəldi</t>
+          <t>milli kiber təhlükəsizlik komandası beynəlxalq yarışda qalib gəl</t>
         </is>
       </c>
       <c r="B1554" t="n">
@@ -15988,7 +15988,7 @@
     <row r="1556">
       <c r="A1556" t="inlineStr">
         <is>
-          <t>elektron sənəd dövriyyəsi dövlət xidmətlərini daha şəffaf edir</t>
+          <t>elektron sənəd dövriyyəsi dövlət xidmətlərini daha şəffaf et</t>
         </is>
       </c>
       <c r="B1556" t="n">
@@ -16038,7 +16038,7 @@
     <row r="1561">
       <c r="A1561" t="inlineStr">
         <is>
-          <t>azərbaycanın it sektoru xaricə məhsul ixrac edir</t>
+          <t>azərbaycanın it sektoru xaricə məhsul ixrac et</t>
         </is>
       </c>
       <c r="B1561" t="n">
@@ -16128,7 +16128,7 @@
     <row r="1570">
       <c r="A1570" t="inlineStr">
         <is>
-          <t>rəqəmsal texnologiyalar dövlət idarəçiliyini daha effektiv edir</t>
+          <t>rəqəmsal texnologiyalar dövlət idarəçiliyini daha effektiv et</t>
         </is>
       </c>
       <c r="B1570" t="n">
@@ -16148,7 +16148,7 @@
     <row r="1572">
       <c r="A1572" t="inlineStr">
         <is>
-          <t>elektron xidmətlər əhalinin vaxtına qənaət edir</t>
+          <t>elektron xidmətlər əhalinin vaxtına qənaət et</t>
         </is>
       </c>
       <c r="B1572" t="n">
@@ -16158,7 +16158,7 @@
     <row r="1573">
       <c r="A1573" t="inlineStr">
         <is>
-          <t>azərbaycanda e ticarət sürətlə inkişaf edir</t>
+          <t>azərbaycanda e ticarət sürətlə inkişaf et</t>
         </is>
       </c>
       <c r="B1573" t="n">
@@ -16178,7 +16178,7 @@
     <row r="1575">
       <c r="A1575" t="inlineStr">
         <is>
-          <t>azərbaycanlı gənc proqramçılar beynəlxalq olimpiadalarda birinci oldu</t>
+          <t>azərbaycanlı gənc proqramçılar beynəlxalq olimpiadalarda birinci ol</t>
         </is>
       </c>
       <c r="B1575" t="n">
@@ -16198,7 +16198,7 @@
     <row r="1577">
       <c r="A1577" t="inlineStr">
         <is>
-          <t>elektron xidmətlərdə yaranan nasazlıqlar əhalinin narazılığına səbəb oldu</t>
+          <t>elektron xidmətlərdə yaranan nasazlıqlar əhalinin narazılığına səbəb ol</t>
         </is>
       </c>
       <c r="B1577" t="n">
@@ -16318,7 +16318,7 @@
     <row r="1589">
       <c r="A1589" t="inlineStr">
         <is>
-          <t>azərbaycanda rəqəmsal uçurum problemi davam edir</t>
+          <t>azərbaycanda rəqəmsal uçurum problemi davam et</t>
         </is>
       </c>
       <c r="B1589" t="n">
@@ -16588,7 +16588,7 @@
     <row r="1616">
       <c r="A1616" t="inlineStr">
         <is>
-          <t>elektron imza sistemindəki problemlər davam edir</t>
+          <t>elektron imza sistemindəki problemlər davam et</t>
         </is>
       </c>
       <c r="B1616" t="n">
@@ -16618,7 +16618,7 @@
     <row r="1619">
       <c r="A1619" t="inlineStr">
         <is>
-          <t>kibertəhlükəsizliklə bağlı yeni qanun layihəsi etirazlara səbəb oldu</t>
+          <t>kibertəhlükəsizliklə bağlı yeni qanun layihəsi etirazlara səbəb ol</t>
         </is>
       </c>
       <c r="B1619" t="n">
@@ -16768,7 +16768,7 @@
     <row r="1634">
       <c r="A1634" t="inlineStr">
         <is>
-          <t>dövlət xidmətləri agentliyi yeni elektron xidmətləri təqdim etdi</t>
+          <t>dövlət xidmətləri agentliyi yeni elektron xidmətləri təqdim et</t>
         </is>
       </c>
       <c r="B1634" t="n">
@@ -16778,7 +16778,7 @@
     <row r="1635">
       <c r="A1635" t="inlineStr">
         <is>
-          <t>bakıda yeni telekommunikasiya binasının tikintisi davam edir</t>
+          <t>bakıda yeni telekommunikasiya binasının tikintisi davam et</t>
         </is>
       </c>
       <c r="B1635" t="n">
@@ -16818,7 +16818,7 @@
     <row r="1639">
       <c r="A1639" t="inlineStr">
         <is>
-          <t>dövlət texnoloji agentliyi yeni layihələr təqdim etdi</t>
+          <t>dövlət texnoloji agentliyi yeni layihələr təqdim et</t>
         </is>
       </c>
       <c r="B1639" t="n">
@@ -16868,7 +16868,7 @@
     <row r="1644">
       <c r="A1644" t="inlineStr">
         <is>
-          <t>azərbaycanda elektron hökumət sisteminin inkişafı davam edir</t>
+          <t>azərbaycanda elektron hökumət sisteminin inkişafı davam et</t>
         </is>
       </c>
       <c r="B1644" t="n">
@@ -16878,7 +16878,7 @@
     <row r="1645">
       <c r="A1645" t="inlineStr">
         <is>
-          <t>dövlət texnoloji agentliyi yeni maliyyə proqramını təqdim etdi</t>
+          <t>dövlət texnoloji agentliyi yeni maliyyə proqramını təqdim et</t>
         </is>
       </c>
       <c r="B1645" t="n">
@@ -16958,7 +16958,7 @@
     <row r="1653">
       <c r="A1653" t="inlineStr">
         <is>
-          <t>azərbaycanda ağıllı şəhər layihələri üzərində iş gedir</t>
+          <t>azərbaycanda ağıllı şəhər layihələri üzərində iş get</t>
         </is>
       </c>
       <c r="B1653" t="n">
@@ -16968,7 +16968,7 @@
     <row r="1654">
       <c r="A1654" t="inlineStr">
         <is>
-          <t>dövlət təhsil nazirliyi yeni təhsil texnologiyalarını tətbiq edir</t>
+          <t>dövlət təhsil nazirliyi yeni təhsil texnologiyalarını tətbiq et</t>
         </is>
       </c>
       <c r="B1654" t="n">
@@ -17028,7 +17028,7 @@
     <row r="1660">
       <c r="A1660" t="inlineStr">
         <is>
-          <t>dövlət kiber təhlükəsizlik xidməti yeni qaydalar qəbul etdi</t>
+          <t>dövlət kiber təhlükəsizlik xidməti yeni qaydalar qəbul et</t>
         </is>
       </c>
       <c r="B1660" t="n">
@@ -17178,7 +17178,7 @@
     <row r="1675">
       <c r="A1675" t="inlineStr">
         <is>
-          <t>prezidentin xarici səfəri ölkəyə böyük investisiyalar cəlb etdi</t>
+          <t>prezidentin xarici səfəri ölkəyə böyük investisiyalar cəlb et</t>
         </is>
       </c>
       <c r="B1675" t="n">
@@ -17258,7 +17258,7 @@
     <row r="1683">
       <c r="A1683" t="inlineStr">
         <is>
-          <t>hökumətin atdığı addımlar iqtisadiyyatın canlanmasına səbəb oldu</t>
+          <t>hökumətin atdığı addımlar iqtisadiyyatın canlanmasına səbəb ol</t>
         </is>
       </c>
       <c r="B1683" t="n">
@@ -17368,7 +17368,7 @@
     <row r="1694">
       <c r="A1694" t="inlineStr">
         <is>
-          <t>yeni təhsil layihəsi ölkənin gələcəyi üçün böyük əhəmiyyət kəsb edir</t>
+          <t>yeni təhsil layihəsi ölkənin gələcəyi üçün böyük əhəmiyyət kəsb et</t>
         </is>
       </c>
       <c r="B1694" t="n">
@@ -17378,7 +17378,7 @@
     <row r="1695">
       <c r="A1695" t="inlineStr">
         <is>
-          <t>azərbaycanın xarici siyasəti uğurla davam edir</t>
+          <t>azərbaycanın xarici siyasəti uğurla davam et</t>
         </is>
       </c>
       <c r="B1695" t="n">
@@ -17508,7 +17508,7 @@
     <row r="1708">
       <c r="A1708" t="inlineStr">
         <is>
-          <t>hökumət ölkə iqtisadiyyatını şaxələndirmək üçün yeni layihələr təqdim etdi</t>
+          <t>hökumət ölkə iqtisadiyyatını şaxələndirmək üçün yeni layihələr təqdim et</t>
         </is>
       </c>
       <c r="B1708" t="n">
@@ -17608,7 +17608,7 @@
     <row r="1718">
       <c r="A1718" t="inlineStr">
         <is>
-          <t>müxalifət partiyaları hökumətin yeni qərarına etiraz etdi</t>
+          <t>müxalifət partiyaları hökumətin yeni qərarına etiraz et</t>
         </is>
       </c>
       <c r="B1718" t="n">
@@ -17618,7 +17618,7 @@
     <row r="1719">
       <c r="A1719" t="inlineStr">
         <is>
-          <t>prezidentin sərəncamı ölkədə narazılığa səbəb oldu</t>
+          <t>prezidentin sərəncamı ölkədə narazılığa səbəb ol</t>
         </is>
       </c>
       <c r="B1719" t="n">
@@ -17698,7 +17698,7 @@
     <row r="1727">
       <c r="A1727" t="inlineStr">
         <is>
-          <t>prezidentin sərəncamı sosial gərginliyə səbəb oldu</t>
+          <t>prezidentin sərəncamı sosial gərginliyə səbəb ol</t>
         </is>
       </c>
       <c r="B1727" t="n">
@@ -17718,7 +17718,7 @@
     <row r="1729">
       <c r="A1729" t="inlineStr">
         <is>
-          <t>yeni vergilər əhalinin narazılığına səbəb oldu</t>
+          <t>yeni vergilər əhalinin narazılığına səbəb ol</t>
         </is>
       </c>
       <c r="B1729" t="n">
@@ -17748,7 +17748,7 @@
     <row r="1732">
       <c r="A1732" t="inlineStr">
         <is>
-          <t>milli məclisdə qəbul edilən qanun layihəsi tənqidə səbəb oldu</t>
+          <t>milli məclisdə qəbul edilən qanun layihəsi tənqidə səbəb ol</t>
         </is>
       </c>
       <c r="B1732" t="n">
@@ -17778,7 +17778,7 @@
     <row r="1735">
       <c r="A1735" t="inlineStr">
         <is>
-          <t>hökumət yeni sosial dəstək proqramını ləğv etdi</t>
+          <t>hökumət yeni sosial dəstək proqramını ləğv et</t>
         </is>
       </c>
       <c r="B1735" t="n">
@@ -17838,7 +17838,7 @@
     <row r="1741">
       <c r="A1741" t="inlineStr">
         <is>
-          <t>hökumət proqramı yoxsulluğu azaltmaqda uğursuz oldu</t>
+          <t>hökumət proqramı yoxsulluğu azaltmaqda uğursuz ol</t>
         </is>
       </c>
       <c r="B1741" t="n">
@@ -17878,7 +17878,7 @@
     <row r="1745">
       <c r="A1745" t="inlineStr">
         <is>
-          <t>prezidentin sərəncamı regionlarda narazılığa səbəb oldu</t>
+          <t>prezidentin sərəncamı regionlarda narazılığa səbəb ol</t>
         </is>
       </c>
       <c r="B1745" t="n">
@@ -17888,7 +17888,7 @@
     <row r="1746">
       <c r="A1746" t="inlineStr">
         <is>
-          <t>azərbaycanın energetika siyasəti uğursuz oldu</t>
+          <t>azərbaycanın energetika siyasəti uğursuz ol</t>
         </is>
       </c>
       <c r="B1746" t="n">
@@ -18028,7 +18028,7 @@
     <row r="1760">
       <c r="A1760" t="inlineStr">
         <is>
-          <t>yeni infrastruktur layihələri ölkənin inkişafına mane olur</t>
+          <t>yeni infrastruktur layihələri ölkənin inkişafına mane ol</t>
         </is>
       </c>
       <c r="B1760" t="n">
@@ -18138,7 +18138,7 @@
     <row r="1771">
       <c r="A1771" t="inlineStr">
         <is>
-          <t>hökumət rəhbəri əhalinin müraciətləri ilə tanış oldu</t>
+          <t>hökumət rəhbəri əhalinin müraciətləri ilə tanış ol</t>
         </is>
       </c>
       <c r="B1771" t="n">
@@ -18258,7 +18258,7 @@
     <row r="1783">
       <c r="A1783" t="inlineStr">
         <is>
-          <t>hökumət nümayəndə heyəti xarici ölkəyə səfər etdi</t>
+          <t>hökumət nümayəndə heyəti xarici ölkəyə səfər et</t>
         </is>
       </c>
       <c r="B1783" t="n">
@@ -18288,7 +18288,7 @@
     <row r="1786">
       <c r="A1786" t="inlineStr">
         <is>
-          <t>milli məclisdə yeni qanunvericilik üzərində iş gedir</t>
+          <t>milli məclisdə yeni qanunvericilik üzərində iş get</t>
         </is>
       </c>
       <c r="B1786" t="n">
@@ -18318,7 +18318,7 @@
     <row r="1789">
       <c r="A1789" t="inlineStr">
         <is>
-          <t>prezident yeni naziri qəbul etdi</t>
+          <t>prezident yeni naziri qəbul et</t>
         </is>
       </c>
       <c r="B1789" t="n">
@@ -18338,7 +18338,7 @@
     <row r="1791">
       <c r="A1791" t="inlineStr">
         <is>
-          <t>hökumət yeni infrastruktur layihələrini təqdim etdi</t>
+          <t>hökumət yeni infrastruktur layihələrini təqdim et</t>
         </is>
       </c>
       <c r="B1791" t="n">
@@ -18378,7 +18378,7 @@
     <row r="1795">
       <c r="A1795" t="inlineStr">
         <is>
-          <t>hökumət yeni sosial layihəni təqdim etdi</t>
+          <t>hökumət yeni sosial layihəni təqdim et</t>
         </is>
       </c>
       <c r="B1795" t="n">
@@ -18418,7 +18418,7 @@
     <row r="1799">
       <c r="A1799" t="inlineStr">
         <is>
-          <t>hökumət yeni idarəetmə sistemini tətbiq edir</t>
+          <t>hökumət yeni idarəetmə sistemini tətbiq et</t>
         </is>
       </c>
       <c r="B1799" t="n">
@@ -18498,7 +18498,7 @@
     <row r="1807">
       <c r="A1807" t="inlineStr">
         <is>
-          <t>hökumət yeni investisiya strategiyasını təqdim etdi</t>
+          <t>hökumət yeni investisiya strategiyasını təqdim et</t>
         </is>
       </c>
       <c r="B1807" t="n">
@@ -18518,7 +18518,7 @@
     <row r="1809">
       <c r="A1809" t="inlineStr">
         <is>
-          <t>prezident yeni hökumət üzvünü qəbul etdi</t>
+          <t>prezident yeni hökumət üzvünü qəbul et</t>
         </is>
       </c>
       <c r="B1809" t="n">
@@ -19048,7 +19048,7 @@
     <row r="1862">
       <c r="A1862" t="inlineStr">
         <is>
-          <t>yeni turizm marşrutları turistləri heyran etdi</t>
+          <t>yeni turizm marşrutları turistləri heyran et</t>
         </is>
       </c>
       <c r="B1862" t="n">
@@ -19098,7 +19098,7 @@
     <row r="1867">
       <c r="A1867" t="inlineStr">
         <is>
-          <t>lənkəranın çay plantasiyaları yeni turistləri cəlb edir</t>
+          <t>lənkəranın çay plantasiyaları yeni turistləri cəlb et</t>
         </is>
       </c>
       <c r="B1867" t="n">
@@ -19108,7 +19108,7 @@
     <row r="1868">
       <c r="A1868" t="inlineStr">
         <is>
-          <t>azərbaycanın qastronomiya turizmi inkişaf edir</t>
+          <t>azərbaycanın qastronomiya turizmi inkişaf et</t>
         </is>
       </c>
       <c r="B1868" t="n">
@@ -19198,7 +19198,7 @@
     <row r="1877">
       <c r="A1877" t="inlineStr">
         <is>
-          <t>mingəçevirdəki süni göl yeni turistlər cəlb edir</t>
+          <t>mingəçevirdəki süni göl yeni turistlər cəlb et</t>
         </is>
       </c>
       <c r="B1877" t="n">
@@ -19278,7 +19278,7 @@
     <row r="1885">
       <c r="A1885" t="inlineStr">
         <is>
-          <t>azərbaycanda kənd turizmi sürətlə inkişaf edir</t>
+          <t>azərbaycanda kənd turizmi sürətlə inkişaf et</t>
         </is>
       </c>
       <c r="B1885" t="n">
@@ -19298,7 +19298,7 @@
     <row r="1887">
       <c r="A1887" t="inlineStr">
         <is>
-          <t>gəncənin tarixi məkanları turistlərin böyük marağına səbəb oldu</t>
+          <t>gəncənin tarixi məkanları turistlərin böyük marağına səbəb ol</t>
         </is>
       </c>
       <c r="B1887" t="n">
@@ -19338,7 +19338,7 @@
     <row r="1891">
       <c r="A1891" t="inlineStr">
         <is>
-          <t>azərbaycanın beynəlxalq turizm sərgilərində iştirakı uğurlu oldu</t>
+          <t>azərbaycanın beynəlxalq turizm sərgilərində iştirakı uğurlu ol</t>
         </is>
       </c>
       <c r="B1891" t="n">
@@ -19368,7 +19368,7 @@
     <row r="1894">
       <c r="A1894" t="inlineStr">
         <is>
-          <t>xızı qoruğundakı yanardağlar turistlərin marağını cəlb edir</t>
+          <t>xızı qoruğundakı yanardağlar turistlərin marağını cəlb et</t>
         </is>
       </c>
       <c r="B1894" t="n">
@@ -19398,7 +19398,7 @@
     <row r="1897">
       <c r="A1897" t="inlineStr">
         <is>
-          <t>gəncədəki tarixi məkanlar turistlərin böyük marağına səbəb oldu</t>
+          <t>gəncədəki tarixi məkanlar turistlərin böyük marağına səbəb ol</t>
         </is>
       </c>
       <c r="B1897" t="n">
@@ -19438,7 +19438,7 @@
     <row r="1901">
       <c r="A1901" t="inlineStr">
         <is>
-          <t>azərbaycanda çay turizmi inkişaf edir</t>
+          <t>azərbaycanda çay turizmi inkişaf et</t>
         </is>
       </c>
       <c r="B1901" t="n">
@@ -19448,7 +19448,7 @@
     <row r="1902">
       <c r="A1902" t="inlineStr">
         <is>
-          <t>göy göl milli parkı yeni turistləri qəbul etdi</t>
+          <t>göy göl milli parkı yeni turistləri qəbul et</t>
         </is>
       </c>
       <c r="B1902" t="n">
@@ -19568,7 +19568,7 @@
     <row r="1914">
       <c r="A1914" t="inlineStr">
         <is>
-          <t>azərbaycanın tarixi məkanları turist axınına səbəb oldu</t>
+          <t>azərbaycanın tarixi məkanları turist axınına səbəb ol</t>
         </is>
       </c>
       <c r="B1914" t="n">
@@ -19598,7 +19598,7 @@
     <row r="1917">
       <c r="A1917" t="inlineStr">
         <is>
-          <t>şəkidəki xan sarayı turistlərin ən çox ziyarət etdiyi yer oldu</t>
+          <t>şəkidəki xan sarayı turistlərin ən çox ziyarət etdiyi yer ol</t>
         </is>
       </c>
       <c r="B1917" t="n">
@@ -19608,7 +19608,7 @@
     <row r="1918">
       <c r="A1918" t="inlineStr">
         <is>
-          <t>azərbaycan turizmi qonşu ölkələri cəlb edir</t>
+          <t>azərbaycan turizmi qonşu ölkələri cəlb et</t>
         </is>
       </c>
       <c r="B1918" t="n">
@@ -19638,7 +19638,7 @@
     <row r="1921">
       <c r="A1921" t="inlineStr">
         <is>
-          <t>qəbələdəki otellər beynəlxalq turistləri qəbul edir</t>
+          <t>qəbələdəki otellər beynəlxalq turistləri qəbul et</t>
         </is>
       </c>
       <c r="B1921" t="n">
@@ -19728,7 +19728,7 @@
     <row r="1930">
       <c r="A1930" t="inlineStr">
         <is>
-          <t>bakı şəhəri yeni turizm brendi təqdim etdi</t>
+          <t>bakı şəhəri yeni turizm brendi təqdim et</t>
         </is>
       </c>
       <c r="B1930" t="n">
@@ -19758,7 +19758,7 @@
     <row r="1933">
       <c r="A1933" t="inlineStr">
         <is>
-          <t>lənkəranda çay turizmi inkişaf edir</t>
+          <t>lənkəranda çay turizmi inkişaf et</t>
         </is>
       </c>
       <c r="B1933" t="n">
@@ -19798,7 +19798,7 @@
     <row r="1937">
       <c r="A1937" t="inlineStr">
         <is>
-          <t>azərbaycanın kənd turizmi inkişaf edir</t>
+          <t>azərbaycanın kənd turizmi inkişaf et</t>
         </is>
       </c>
       <c r="B1937" t="n">
@@ -19808,7 +19808,7 @@
     <row r="1938">
       <c r="A1938" t="inlineStr">
         <is>
-          <t>azərbaycan turizm agentliyi yeni layihəni təqdim etdi</t>
+          <t>azərbaycan turizm agentliyi yeni layihəni təqdim et</t>
         </is>
       </c>
       <c r="B1938" t="n">
@@ -19888,7 +19888,7 @@
     <row r="1946">
       <c r="A1946" t="inlineStr">
         <is>
-          <t>bakıda yeni hava limanının tikintisi davam edir</t>
+          <t>bakıda yeni hava limanının tikintisi davam et</t>
         </is>
       </c>
       <c r="B1946" t="n">
@@ -19918,7 +19918,7 @@
     <row r="1949">
       <c r="A1949" t="inlineStr">
         <is>
-          <t>şəkidəki tarixi abidələrin bərpası davam edir</t>
+          <t>şəkidəki tarixi abidələrin bərpası davam et</t>
         </is>
       </c>
       <c r="B1949" t="n">
@@ -19928,7 +19928,7 @@
     <row r="1950">
       <c r="A1950" t="inlineStr">
         <is>
-          <t>turizm nazirinin müavini vəzifəsinə yeni təyinat oldu</t>
+          <t>turizm nazirinin müavini vəzifəsinə yeni təyinat ol</t>
         </is>
       </c>
       <c r="B1950" t="n">
@@ -20068,7 +20068,7 @@
     <row r="1964">
       <c r="A1964" t="inlineStr">
         <is>
-          <t>azərbaycanın turizm nazirliyi yeni fəaliyyət planını təqdim etdi</t>
+          <t>azərbaycanın turizm nazirliyi yeni fəaliyyət planını təqdim et</t>
         </is>
       </c>
       <c r="B1964" t="n">
@@ -20108,7 +20108,7 @@
     <row r="1968">
       <c r="A1968" t="inlineStr">
         <is>
-          <t>bakıda otel qiymətlərinin kəskin artması turistləri narahat edir</t>
+          <t>bakıda otel qiymətlərinin kəskin artması turistləri narahat et</t>
         </is>
       </c>
       <c r="B1968" t="n">
@@ -20308,7 +20308,7 @@
     <row r="1988">
       <c r="A1988" t="inlineStr">
         <is>
-          <t>bakıda nəqliyyat problemi turistləri narahat edir</t>
+          <t>bakıda nəqliyyat problemi turistləri narahat et</t>
         </is>
       </c>
       <c r="B1988" t="n">
@@ -20358,7 +20358,7 @@
     <row r="1993">
       <c r="A1993" t="inlineStr">
         <is>
-          <t>azərbaycana gələn turistlərin sayı gözləniləndən az oldu</t>
+          <t>azərbaycana gələn turistlərin sayı gözləniləndən az ol</t>
         </is>
       </c>
       <c r="B1993" t="n">
@@ -21078,7 +21078,7 @@
     <row r="2065">
       <c r="A2065" t="inlineStr">
         <is>
-          <t>nadir kitabların elektron nüsxələrinin yaradılması prosesi davam edir</t>
+          <t>nadir kitabların elektron nüsxələrinin yaradılması prosesi davam et</t>
         </is>
       </c>
       <c r="B2065" t="n">
@@ -21208,7 +21208,7 @@
     <row r="2078">
       <c r="A2078" t="inlineStr">
         <is>
-          <t>təcili yardım xidmətinin avtomobil parkının yenilənməsi davam edir</t>
+          <t>təcili yardım xidmətinin avtomobil parkının yenilənməsi davam et</t>
         </is>
       </c>
       <c r="B2078" t="n">
@@ -21238,7 +21238,7 @@
     <row r="2081">
       <c r="A2081" t="inlineStr">
         <is>
-          <t>elektron ticarət qaydalarının sadələşdirilməsi üzərində iş gedir</t>
+          <t>elektron ticarət qaydalarının sadələşdirilməsi üzərində iş get</t>
         </is>
       </c>
       <c r="B2081" t="n">
@@ -22148,7 +22148,7 @@
     <row r="2172">
       <c r="A2172" t="inlineStr">
         <is>
-          <t>bank sektorunda problemli kreditlərin payı artmaqda davam edir</t>
+          <t>bank sektorunda problemli kreditlərin payı artmaqda davam et</t>
         </is>
       </c>
       <c r="B2172" t="n">
@@ -22388,7 +22388,7 @@
     <row r="2196">
       <c r="A2196" t="inlineStr">
         <is>
-          <t>xarici ticarət balansında yaranan mənfi saldo davam edir</t>
+          <t>xarici ticarət balansında yaranan mənfi saldo davam et</t>
         </is>
       </c>
       <c r="B2196" t="n">
@@ -22548,7 +22548,7 @@
     <row r="2212">
       <c r="A2212" t="inlineStr">
         <is>
-          <t>məhkəmə sistemindəki ləngimələr vətəndaşların narazılığına səbəb olur</t>
+          <t>məhkəmə sistemindəki ləngimələr vətəndaşların narazılığına səbəb ol</t>
         </is>
       </c>
       <c r="B2212" t="n">
@@ -22588,7 +22588,7 @@
     <row r="2216">
       <c r="A2216" t="inlineStr">
         <is>
-          <t>məktəblərin maddi texniki bazasının zəifliyi təhsilin keyfiyyətinə təsir edir</t>
+          <t>məktəblərin maddi texniki bazasının zəifliyi təhsilin keyfiyyətinə təsir et</t>
         </is>
       </c>
       <c r="B2216" t="n">
@@ -22668,7 +22668,7 @@
     <row r="2224">
       <c r="A2224" t="inlineStr">
         <is>
-          <t>siyasi qeyri müəyyənlik investorların ölkədən çəkilməsinə səbəb olur</t>
+          <t>siyasi qeyri müəyyənlik investorların ölkədən çəkilməsinə səbəb ol</t>
         </is>
       </c>
       <c r="B2224" t="n">
@@ -22678,7 +22678,7 @@
     <row r="2225">
       <c r="A2225" t="inlineStr">
         <is>
-          <t>avtomobil yollarının keyfiyyətsiz olması sürücülərin şikayətinə səbəb olur</t>
+          <t>avtomobil yollarının keyfiyyətsiz olması sürücülərin şikayətinə səbəb ol</t>
         </is>
       </c>
       <c r="B2225" t="n">
@@ -22688,7 +22688,7 @@
     <row r="2226">
       <c r="A2226" t="inlineStr">
         <is>
-          <t>istedadlı gənclərin ölkəni tərk etməsi tendensiyası davam edir</t>
+          <t>istedadlı gənclərin ölkəni tərk etməsi tendensiyası davam et</t>
         </is>
       </c>
       <c r="B2226" t="n">
@@ -22708,7 +22708,7 @@
     <row r="2228">
       <c r="A2228" t="inlineStr">
         <is>
-          <t>bürokratik əngəllər biznesin inkişafına mane olur</t>
+          <t>bürokratik əngəllər biznesin inkişafına mane ol</t>
         </is>
       </c>
       <c r="B2228" t="n">
@@ -22898,7 +22898,7 @@
     <row r="2247">
       <c r="A2247" t="inlineStr">
         <is>
-          <t>iqtisadi islahatların ləngiməsi beynəlxalq maliyyə qurumlarını narahat edir</t>
+          <t>iqtisadi islahatların ləngiməsi beynəlxalq maliyyə qurumlarını narahat et</t>
         </is>
       </c>
       <c r="B2247" t="n">
@@ -22948,7 +22948,7 @@
     <row r="2252">
       <c r="A2252" t="inlineStr">
         <is>
-          <t>tələbə yataqxanalarında yer çatışmazlığı problemi davam edir</t>
+          <t>tələbə yataqxanalarında yer çatışmazlığı problemi davam et</t>
         </is>
       </c>
       <c r="B2252" t="n">
@@ -23028,7 +23028,7 @@
     <row r="2260">
       <c r="A2260" t="inlineStr">
         <is>
-          <t>müəllimlərin aşağı əmək haqqı təhsilin keyfiyyətinə mənfi təsir edir</t>
+          <t>müəllimlərin aşağı əmək haqqı təhsilin keyfiyyətinə mənfi təsir et</t>
         </is>
       </c>
       <c r="B2260" t="n">
@@ -23088,7 +23088,7 @@
     <row r="2266">
       <c r="A2266" t="inlineStr">
         <is>
-          <t>məktəblərdə zorakılıq hallarının artması valideynləri narahat edir</t>
+          <t>məktəblərdə zorakılıq hallarının artması valideynləri narahat et</t>
         </is>
       </c>
       <c r="B2266" t="n">
@@ -23178,7 +23178,7 @@
     <row r="2275">
       <c r="A2275" t="inlineStr">
         <is>
-          <t>bölgələrdə internetin keyfiyyətinin aşağı olması distant təhsilə mane olur</t>
+          <t>bölgələrdə internetin keyfiyyətinin aşağı olması distant təhsilə mane ol</t>
         </is>
       </c>
       <c r="B2275" t="n">
@@ -23208,7 +23208,7 @@
     <row r="2278">
       <c r="A2278" t="inlineStr">
         <is>
-          <t>təyyarə reyslərinin tez tez gecikməsi sərnişinlərin haqlı narazılığına səbəb olur</t>
+          <t>təyyarə reyslərinin tez tez gecikməsi sərnişinlərin haqlı narazılığına səbəb ol</t>
         </is>
       </c>
       <c r="B2278" t="n">
@@ -23218,7 +23218,7 @@
     <row r="2279">
       <c r="A2279" t="inlineStr">
         <is>
-          <t>tarixi şəhər mərkəzinin memarlıq simasının pozulması prosesi davam edir</t>
+          <t>tarixi şəhər mərkəzinin memarlıq simasının pozulması prosesi davam et</t>
         </is>
       </c>
       <c r="B2279" t="n">
@@ -23378,7 +23378,7 @@
     <row r="2295">
       <c r="A2295" t="inlineStr">
         <is>
-          <t>əhalinin bank sisteminə etimadının bərpası ləng gedir</t>
+          <t>əhalinin bank sisteminə etimadının bərpası ləng get</t>
         </is>
       </c>
       <c r="B2295" t="n">
@@ -23408,7 +23408,7 @@
     <row r="2298">
       <c r="A2298" t="inlineStr">
         <is>
-          <t>qonşu ölkə ilə sərhəddəki gərginlik ticarətə mənfi təsir edir</t>
+          <t>qonşu ölkə ilə sərhəddəki gərginlik ticarətə mənfi təsir et</t>
         </is>
       </c>
       <c r="B2298" t="n">
@@ -23428,7 +23428,7 @@
     <row r="2300">
       <c r="A2300" t="inlineStr">
         <is>
-          <t>qiymətli kağızlar bazarında müşahidə olunan eniş investorları narahat edir</t>
+          <t>qiymətli kağızlar bazarında müşahidə olunan eniş investorları narahat et</t>
         </is>
       </c>
       <c r="B2300" t="n">
@@ -23458,7 +23458,7 @@
     <row r="2303">
       <c r="A2303" t="inlineStr">
         <is>
-          <t>ətraf mühitin çirklənməsi xroniki xəstəliklərin artmasına səbəb olur</t>
+          <t>ətraf mühitin çirklənməsi xroniki xəstəliklərin artmasına səbəb ol</t>
         </is>
       </c>
       <c r="B2303" t="n">
@@ -23758,7 +23758,7 @@
     <row r="2333">
       <c r="A2333" t="inlineStr">
         <is>
-          <t>təhsil sistemindəki islahatların nəticəsizliyi ekspertləri narahat edir</t>
+          <t>təhsil sistemindəki islahatların nəticəsizliyi ekspertləri narahat et</t>
         </is>
       </c>
       <c r="B2333" t="n">
@@ -23888,7 +23888,7 @@
     <row r="2346">
       <c r="A2346" t="inlineStr">
         <is>
-          <t>dövlət proqramının icrasındakı ləngimələr vəsaitlərin səmərəsiz xərclənməsinə səbəb olur</t>
+          <t>dövlət proqramının icrasındakı ləngimələr vəsaitlərin səmərəsiz xərclənməsinə səbəb ol</t>
         </is>
       </c>
       <c r="B2346" t="n">
@@ -23978,7 +23978,7 @@
     <row r="2355">
       <c r="A2355" t="inlineStr">
         <is>
-          <t>neftin dünya bazarındakı son qiyməti məlum oldu</t>
+          <t>neftin dünya bazarındakı son qiyməti məlum ol</t>
         </is>
       </c>
       <c r="B2355" t="n">
@@ -24058,7 +24058,7 @@
     <row r="2363">
       <c r="A2363" t="inlineStr">
         <is>
-          <t>prezident yeni səfirin etimadnaməsini qəbul etdi</t>
+          <t>prezident yeni səfirin etimadnaməsini qəbul et</t>
         </is>
       </c>
       <c r="B2363" t="n">
@@ -24108,7 +24108,7 @@
     <row r="2368">
       <c r="A2368" t="inlineStr">
         <is>
-          <t>mədəniyyət nazirliyi qarşıdakı teatr mövsümünün repertuarını elan etdi</t>
+          <t>mədəniyyət nazirliyi qarşıdakı teatr mövsümünün repertuarını elan et</t>
         </is>
       </c>
       <c r="B2368" t="n">
@@ -24238,7 +24238,7 @@
     <row r="2381">
       <c r="A2381" t="inlineStr">
         <is>
-          <t>fond birjasında son hərracın nəticələri məlum oldu</t>
+          <t>fond birjasında son hərracın nəticələri məlum ol</t>
         </is>
       </c>
       <c r="B2381" t="n">
@@ -24268,7 +24268,7 @@
     <row r="2384">
       <c r="A2384" t="inlineStr">
         <is>
-          <t>dövlət gömrük komitəsi aylıq hesabatını təqdim etdi</t>
+          <t>dövlət gömrük komitəsi aylıq hesabatını təqdim et</t>
         </is>
       </c>
       <c r="B2384" t="n">
@@ -24298,7 +24298,7 @@
     <row r="2387">
       <c r="A2387" t="inlineStr">
         <is>
-          <t>beynəlxalq maliyyə qurumu ölkə üzrə hesabatını dərc etdi</t>
+          <t>beynəlxalq maliyyə qurumu ölkə üzrə hesabatını dərc et</t>
         </is>
       </c>
       <c r="B2387" t="n">
@@ -24308,7 +24308,7 @@
     <row r="2388">
       <c r="A2388" t="inlineStr">
         <is>
-          <t>şahmat üzrə dünya tacı uğrunda növbəti görüşün vaxtı bəlli oldu</t>
+          <t>şahmat üzrə dünya tacı uğrunda növbəti görüşün vaxtı bəlli ol</t>
         </is>
       </c>
       <c r="B2388" t="n">
@@ -24348,7 +24348,7 @@
     <row r="2392">
       <c r="A2392" t="inlineStr">
         <is>
-          <t>müxtəlif ölkələrin səfirliklərinin nümayəndələri bir araya gəldi</t>
+          <t>müxtəlif ölkələrin səfirliklərinin nümayəndələri bir araya gəl</t>
         </is>
       </c>
       <c r="B2392" t="n">
@@ -24428,7 +24428,7 @@
     <row r="2400">
       <c r="A2400" t="inlineStr">
         <is>
-          <t>təhsil nazirliyi məktəblilərin tətil günlərini elan etdi</t>
+          <t>təhsil nazirliyi məktəblilərin tətil günlərini elan et</t>
         </is>
       </c>
       <c r="B2400" t="n">
@@ -24468,7 +24468,7 @@
     <row r="2404">
       <c r="A2404" t="inlineStr">
         <is>
-          <t>mədəni irs obyektlərinin qeydiyyatı prosesi davam edir</t>
+          <t>mədəni irs obyektlərinin qeydiyyatı prosesi davam et</t>
         </is>
       </c>
       <c r="B2404" t="n">
@@ -24528,7 +24528,7 @@
     <row r="2410">
       <c r="A2410" t="inlineStr">
         <is>
-          <t>beynəlxalq humanitar təşkilatın nümayəndələri bölgəyə səfər etdi</t>
+          <t>beynəlxalq humanitar təşkilatın nümayəndələri bölgəyə səfər et</t>
         </is>
       </c>
       <c r="B2410" t="n">
@@ -24618,7 +24618,7 @@
     <row r="2419">
       <c r="A2419" t="inlineStr">
         <is>
-          <t>opera və balet teatrı yeni mövsümün ilk premyerasının tarixini elan etdi</t>
+          <t>opera və balet teatrı yeni mövsümün ilk premyerasının tarixini elan et</t>
         </is>
       </c>
       <c r="B2419" t="n">
@@ -24748,7 +24748,7 @@
     <row r="2432">
       <c r="A2432" t="inlineStr">
         <is>
-          <t>ekologiya və təbii sərvətlər nazirliyi monitorinqin nəticələrini elan etdi</t>
+          <t>ekologiya və təbii sərvətlər nazirliyi monitorinqin nəticələrini elan et</t>
         </is>
       </c>
       <c r="B2432" t="n">
@@ -24758,7 +24758,7 @@
     <row r="2433">
       <c r="A2433" t="inlineStr">
         <is>
-          <t>iki ölkə parlamentləri arasında dostluq qrupunun iclası oldu</t>
+          <t>iki ölkə parlamentləri arasında dostluq qrupunun iclası ol</t>
         </is>
       </c>
       <c r="B2433" t="n">
@@ -24788,7 +24788,7 @@
     <row r="2436">
       <c r="A2436" t="inlineStr">
         <is>
-          <t>beynəlxalq enerji agentliyi aylıq hesabatını dərc etdi</t>
+          <t>beynəlxalq enerji agentliyi aylıq hesabatını dərc et</t>
         </is>
       </c>
       <c r="B2436" t="n">
@@ -24798,7 +24798,7 @@
     <row r="2437">
       <c r="A2437" t="inlineStr">
         <is>
-          <t>bakı metropoliteni qatarların hərəkət intervalında dəyişiklik etdi</t>
+          <t>bakı metropoliteni qatarların hərəkət intervalında dəyişiklik et</t>
         </is>
       </c>
       <c r="B2437" t="n">
@@ -24828,7 +24828,7 @@
     <row r="2440">
       <c r="A2440" t="inlineStr">
         <is>
-          <t>fövqəladə hallar nazirliyi qarşıdakı günlər üçün xəbərdarlıq etdi</t>
+          <t>fövqəladə hallar nazirliyi qarşıdakı günlər üçün xəbərdarlıq et</t>
         </is>
       </c>
       <c r="B2440" t="n">
@@ -24848,7 +24848,7 @@
     <row r="2442">
       <c r="A2442" t="inlineStr">
         <is>
-          <t>xarici ölkənin hərbi gəmiləri limana daxil oldu</t>
+          <t>xarici ölkənin hərbi gəmiləri limana daxil ol</t>
         </is>
       </c>
       <c r="B2442" t="n">
@@ -24868,7 +24868,7 @@
     <row r="2444">
       <c r="A2444" t="inlineStr">
         <is>
-          <t>dövlət turizm agentliyi yeni turizm marşrutlarını təqdim etdi</t>
+          <t>dövlət turizm agentliyi yeni turizm marşrutlarını təqdim et</t>
         </is>
       </c>
       <c r="B2444" t="n">
@@ -24968,7 +24968,7 @@
     <row r="2454">
       <c r="A2454" t="inlineStr">
         <is>
-          <t>dövlət imtahan mərkəzi buraxılış imtahanlarının nəticələrini elan etdi</t>
+          <t>dövlət imtahan mərkəzi buraxılış imtahanlarının nəticələrini elan et</t>
         </is>
       </c>
       <c r="B2454" t="n">
@@ -25038,7 +25038,7 @@
     <row r="2461">
       <c r="A2461" t="inlineStr">
         <is>
-          <t>iki ölkənin ticarət nümayəndələri bir araya gəldi</t>
+          <t>iki ölkənin ticarət nümayəndələri bir araya gəl</t>
         </is>
       </c>
       <c r="B2461" t="n">
@@ -25098,7 +25098,7 @@
     <row r="2467">
       <c r="A2467" t="inlineStr">
         <is>
-          <t>milli arxiv idarəsi yeni sənədlərin qəbulunu elan etdi</t>
+          <t>milli arxiv idarəsi yeni sənədlərin qəbulunu elan et</t>
         </is>
       </c>
       <c r="B2467" t="n">
@@ -25108,7 +25108,7 @@
     <row r="2468">
       <c r="A2468" t="inlineStr">
         <is>
-          <t>müəllif hüquqları agentliyi illik hesabatını təqdim etdi</t>
+          <t>müəllif hüquqları agentliyi illik hesabatını təqdim et</t>
         </is>
       </c>
       <c r="B2468" t="n">
@@ -25138,7 +25138,7 @@
     <row r="2471">
       <c r="A2471" t="inlineStr">
         <is>
-          <t>yeni nəsil şəxsiyyət vəsiqələrinin verilməsi prosesi davam edir</t>
+          <t>yeni nəsil şəxsiyyət vəsiqələrinin verilməsi prosesi davam et</t>
         </is>
       </c>
       <c r="B2471" t="n">
@@ -25198,7 +25198,7 @@
     <row r="2477">
       <c r="A2477" t="inlineStr">
         <is>
-          <t>beynəlxalq təşkilatın seçki missiyası ölkəyə gəldi</t>
+          <t>beynəlxalq təşkilatın seçki missiyası ölkəyə gəl</t>
         </is>
       </c>
       <c r="B2477" t="n">
@@ -25238,7 +25238,7 @@
     <row r="2481">
       <c r="A2481" t="inlineStr">
         <is>
-          <t>texnoparkın yeni rezidentinin adı məlum oldu</t>
+          <t>texnoparkın yeni rezidentinin adı məlum ol</t>
         </is>
       </c>
       <c r="B2481" t="n">
@@ -25288,7 +25288,7 @@
     <row r="2486">
       <c r="A2486" t="inlineStr">
         <is>
-          <t>rəqəmsal inkişaf və nəqliyyat nazirliyi yeni layihəni təqdim etdi</t>
+          <t>rəqəmsal inkişaf və nəqliyyat nazirliyi yeni layihəni təqdim et</t>
         </is>
       </c>
       <c r="B2486" t="n">
@@ -25348,7 +25348,7 @@
     <row r="2492">
       <c r="A2492" t="inlineStr">
         <is>
-          <t>beynəlxalq ticarət mərkəzi yeni araşdırmasını dərc etdi</t>
+          <t>beynəlxalq ticarət mərkəzi yeni araşdırmasını dərc et</t>
         </is>
       </c>
       <c r="B2492" t="n">
@@ -25428,7 +25428,7 @@
     <row r="2500">
       <c r="A2500" t="inlineStr">
         <is>
-          <t>məcburi köçkünlərin yeni mənzillərə köçürülməsi prosesi davam edir</t>
+          <t>məcburi köçkünlərin yeni mənzillərə köçürülməsi prosesi davam et</t>
         </is>
       </c>
       <c r="B2500" t="n">
@@ -25458,7 +25458,7 @@
     <row r="2503">
       <c r="A2503" t="inlineStr">
         <is>
-          <t>dini qurumlarla iş üzrə dövlət komitəsi hesabat təqdim etdi</t>
+          <t>dini qurumlarla iş üzrə dövlət komitəsi hesabat təqdim et</t>
         </is>
       </c>
       <c r="B2503" t="n">
@@ -25498,7 +25498,7 @@
     <row r="2507">
       <c r="A2507" t="inlineStr">
         <is>
-          <t>xəzər dənizinin hüquqi statusu üzrə işçi qrupunun iclası oldu</t>
+          <t>xəzər dənizinin hüquqi statusu üzrə işçi qrupunun iclası ol</t>
         </is>
       </c>
       <c r="B2507" t="n">
@@ -25608,7 +25608,7 @@
     <row r="2518">
       <c r="A2518" t="inlineStr">
         <is>
-          <t>iqtisadiyyat institutu makroiqtisadi proqnozlarını təqdim etdi</t>
+          <t>iqtisadiyyat institutu makroiqtisadi proqnozlarını təqdim et</t>
         </is>
       </c>
       <c r="B2518" t="n">
@@ -25678,7 +25678,7 @@
     <row r="2525">
       <c r="A2525" t="inlineStr">
         <is>
-          <t>şirkət illik maliyyə hesabatını dərc etdi</t>
+          <t>şirkət illik maliyyə hesabatını dərc et</t>
         </is>
       </c>
       <c r="B2525" t="n">
@@ -25748,7 +25748,7 @@
     <row r="2532">
       <c r="A2532" t="inlineStr">
         <is>
-          <t>yeni tikilən xəstəxananın avadanlıqla təchizatı prosesi gedir</t>
+          <t>yeni tikilən xəstəxananın avadanlıqla təchizatı prosesi get</t>
         </is>
       </c>
       <c r="B2532" t="n">
@@ -25758,7 +25758,7 @@
     <row r="2533">
       <c r="A2533" t="inlineStr">
         <is>
-          <t>iki ölkənin kənd təsərrüfatı nazirləri bir araya gəldi</t>
+          <t>iki ölkənin kənd təsərrüfatı nazirləri bir araya gəl</t>
         </is>
       </c>
       <c r="B2533" t="n">
@@ -25788,7 +25788,7 @@
     <row r="2536">
       <c r="A2536" t="inlineStr">
         <is>
-          <t>qafqaz müsəlmanları idarəsinin qazılar şurasının iclası oldu</t>
+          <t>qafqaz müsəlmanları idarəsinin qazılar şurasının iclası ol</t>
         </is>
       </c>
       <c r="B2536" t="n">
@@ -25798,7 +25798,7 @@
     <row r="2537">
       <c r="A2537" t="inlineStr">
         <is>
-          <t>əsərləri və çoğoxlu səs sistemi agentliyi əçssa yeni qeydiyyatları elan etdi</t>
+          <t>əsərləri və çoğoxlu səs sistemi agentliyi əçssa yeni qeydiyyatları elan et</t>
         </is>
       </c>
       <c r="B2537" t="n">
@@ -26298,7 +26298,7 @@
     <row r="2587">
       <c r="A2587" t="inlineStr">
         <is>
-          <t>girov götürülənlərin azad edilməsi danışıqları uğursuz oldu</t>
+          <t>girov götürülənlərin azad edilməsi danışıqları uğursuz ol</t>
         </is>
       </c>
       <c r="B2587" t="n">
@@ -26308,7 +26308,7 @@
     <row r="2588">
       <c r="A2588" t="inlineStr">
         <is>
-          <t>təbii fəlakətin nəticələrinin aradan qaldırılması uğurla davam edir</t>
+          <t>təbii fəlakətin nəticələrinin aradan qaldırılması uğurla davam et</t>
         </is>
       </c>
       <c r="B2588" t="n">
@@ -26338,7 +26338,7 @@
     <row r="2591">
       <c r="A2591" t="inlineStr">
         <is>
-          <t>məhkəmə iddiaçının iddiasını rədd etdi</t>
+          <t>məhkəmə iddiaçının iddiasını rədd et</t>
         </is>
       </c>
       <c r="B2591" t="n">
@@ -26598,7 +26598,7 @@
     <row r="2617">
       <c r="A2617" t="inlineStr">
         <is>
-          <t>investisiya mühitinin pisləşməsi sərmayəçiləri narahat edir</t>
+          <t>investisiya mühitinin pisləşməsi sərmayəçiləri narahat et</t>
         </is>
       </c>
       <c r="B2617" t="n">
@@ -26628,7 +26628,7 @@
     <row r="2620">
       <c r="A2620" t="inlineStr">
         <is>
-          <t>məhkəmə həbs qərarını ləğv etdi</t>
+          <t>məhkəmə həbs qərarını ləğv et</t>
         </is>
       </c>
       <c r="B2620" t="n">
@@ -26888,7 +26888,7 @@
     <row r="2646">
       <c r="A2646" t="inlineStr">
         <is>
-          <t>dövlət proqramının icrası uğurla davam edir</t>
+          <t>dövlət proqramının icrası uğurla davam et</t>
         </is>
       </c>
       <c r="B2646" t="n">
@@ -27018,7 +27018,7 @@
     <row r="2659">
       <c r="A2659" t="inlineStr">
         <is>
-          <t>sərginin ziyarətçi sayı gözləniləndən az oldu</t>
+          <t>sərginin ziyarətçi sayı gözləniləndən az ol</t>
         </is>
       </c>
       <c r="B2659" t="n">
@@ -27178,7 +27178,7 @@
     <row r="2675">
       <c r="A2675" t="inlineStr">
         <is>
-          <t>yolun təmirə bağlanması tıxaclara səbəb oldu</t>
+          <t>yolun təmirə bağlanması tıxaclara səbəb ol</t>
         </is>
       </c>
       <c r="B2675" t="n">
@@ -27288,7 +27288,7 @@
     <row r="2686">
       <c r="A2686" t="inlineStr">
         <is>
-          <t>şirkət tenderin qalibi oldu</t>
+          <t>şirkət tenderin qalibi ol</t>
         </is>
       </c>
       <c r="B2686" t="n">
@@ -27618,7 +27618,7 @@
     <row r="2719">
       <c r="A2719" t="inlineStr">
         <is>
-          <t>iki ölkə birgə hərbi təlimləri ləğv etdi</t>
+          <t>iki ölkə birgə hərbi təlimləri ləğv et</t>
         </is>
       </c>
       <c r="B2719" t="n">
@@ -27798,7 +27798,7 @@
     <row r="2737">
       <c r="A2737" t="inlineStr">
         <is>
-          <t>turizm mövsümündə rekord sayda turist ölkəyə gəldi</t>
+          <t>turizm mövsümündə rekord sayda turist ölkəyə gəl</t>
         </is>
       </c>
       <c r="B2737" t="n">
@@ -28128,7 +28128,7 @@
     <row r="2770">
       <c r="A2770" t="inlineStr">
         <is>
-          <t>elektrik enerjisi təchizatında tez tez kəsilmələr olur</t>
+          <t>elektrik enerjisi təchizatında tez tez kəsilmələr ol</t>
         </is>
       </c>
       <c r="B2770" t="n">
@@ -28238,7 +28238,7 @@
     <row r="2781">
       <c r="A2781" t="inlineStr">
         <is>
-          <t>əhalinin gəlir səviyyəsi sabitdir</t>
+          <t>əhalinin gəl səviyyəsi sabitdir</t>
         </is>
       </c>
       <c r="B2781" t="n">
@@ -28528,7 +28528,7 @@
     <row r="2810">
       <c r="A2810" t="inlineStr">
         <is>
-          <t>milli komanda avropa çempionatında qalib oldu</t>
+          <t>milli komanda avropa çempionatında qalib ol</t>
         </is>
       </c>
       <c r="B2810" t="n">
@@ -28648,7 +28648,7 @@
     <row r="2822">
       <c r="A2822" t="inlineStr">
         <is>
-          <t>şəki bazarında yanğın oldu</t>
+          <t>şəki bazarında yanğın ol</t>
         </is>
       </c>
       <c r="B2822" t="n">
@@ -28688,7 +28688,7 @@
     <row r="2826">
       <c r="A2826" t="inlineStr">
         <is>
-          <t>sənətkar yeni albomunu təqdim etdi</t>
+          <t>sənətkar yeni albomunu təqdim et</t>
         </is>
       </c>
       <c r="B2826" t="n">
@@ -28748,7 +28748,7 @@
     <row r="2832">
       <c r="A2832" t="inlineStr">
         <is>
-          <t>şirkət xeyriyyə aksiyası təşkil etdi</t>
+          <t>şirkət xeyriyyə aksiyası təşkil et</t>
         </is>
       </c>
       <c r="B2832" t="n">
@@ -29008,7 +29008,7 @@
     <row r="2858">
       <c r="A2858" t="inlineStr">
         <is>
-          <t>altı ay komada qalan yeniyetmə vəfat etdi</t>
+          <t>altı ay komada qalan yeniyetmə vəfat et</t>
         </is>
       </c>
       <c r="B2858" t="n">
@@ -29028,7 +29028,7 @@
     <row r="2860">
       <c r="A2860" t="inlineStr">
         <is>
-          <t>hökumət yeni qərar qəbul etdi</t>
+          <t>hökumət yeni qərar qəbul et</t>
         </is>
       </c>
       <c r="B2860" t="n">
@@ -29048,7 +29048,7 @@
     <row r="2862">
       <c r="A2862" t="inlineStr">
         <is>
-          <t>əməkdar artist yubileyini qeyd etdi</t>
+          <t>əməkdar artist yubileyini qeyd et</t>
         </is>
       </c>
       <c r="B2862" t="n">
@@ -29078,7 +29078,7 @@
     <row r="2865">
       <c r="A2865" t="inlineStr">
         <is>
-          <t>iş adamı yeni investisiya layihəsi təqdim etdi</t>
+          <t>iş adamı yeni investisiya layihəsi təqdim et</t>
         </is>
       </c>
       <c r="B2865" t="n">
@@ -29098,7 +29098,7 @@
     <row r="2867">
       <c r="A2867" t="inlineStr">
         <is>
-          <t>məşhur yazıçı yeni kitabını təqdim etdi</t>
+          <t>məşhur yazıçı yeni kitabını təqdim et</t>
         </is>
       </c>
       <c r="B2867" t="n">
@@ -29208,7 +29208,7 @@
     <row r="2878">
       <c r="A2878" t="inlineStr">
         <is>
-          <t>tələbə elmi konfransda birinci oldu</t>
+          <t>tələbə elmi konfransda birinci ol</t>
         </is>
       </c>
       <c r="B2878" t="n">
@@ -29248,7 +29248,7 @@
     <row r="2882">
       <c r="A2882" t="inlineStr">
         <is>
-          <t>düşündüm başqa yolum yoxdur yaşında_NEG tələbə_NEG oldu_NEG</t>
+          <t>düşündüm başqa yolum yoxdur yaşında_NEG tələbə_NEG ol_NEG</t>
         </is>
       </c>
       <c r="B2882" t="n">
@@ -29278,7 +29278,7 @@
     <row r="2885">
       <c r="A2885" t="inlineStr">
         <is>
-          <t>bağı sulayarkən canından oldu</t>
+          <t>bağı sulayarkən canından ol</t>
         </is>
       </c>
       <c r="B2885" t="n">
@@ -29518,7 +29518,7 @@
     <row r="2909">
       <c r="A2909" t="inlineStr">
         <is>
-          <t>elm festivalı minlərlə insanı cəlb etdi</t>
+          <t>elm festivalı minlərlə insanı cəlb et</t>
         </is>
       </c>
       <c r="B2909" t="n">
@@ -29658,7 +29658,7 @@
     <row r="2923">
       <c r="A2923" t="inlineStr">
         <is>
-          <t>kənd sakinləri içməli su çatışmazlığından şikayət edir</t>
+          <t>kənd sakinləri içməli su çatışmazlığından şikayət et</t>
         </is>
       </c>
       <c r="B2923" t="n">
@@ -29878,7 +29878,7 @@
     <row r="2945">
       <c r="A2945" t="inlineStr">
         <is>
-          <t>gənc mühəndislər yeni texnologiya ixtira etdi</t>
+          <t>gənc mühəndislər yeni texnologiya ixtira et</t>
         </is>
       </c>
       <c r="B2945" t="n">
@@ -29908,7 +29908,7 @@
     <row r="2948">
       <c r="A2948" t="inlineStr">
         <is>
-          <t>qadın futbol komandası ilk dəfə qalib gəldi</t>
+          <t>qadın futbol komandası ilk dəfə qalib gəl</t>
         </is>
       </c>
       <c r="B2948" t="n">
